--- a/public/templates/import-kpi-v6-vi.xlsx
+++ b/public/templates/import-kpi-v6-vi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CloudjetSoluions\cloudjet\elms\static\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Django\cloudjet-kpi\elms\static\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877079F9-7EEA-4C94-948C-1F30D77C2EF8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D71504-EDB9-42AC-97F0-1E722DC97CED}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -179,9 +179,6 @@
     <t>cjs_mobi@cjs.vn</t>
   </si>
   <si>
-    <t>LOẠI KPI</t>
-  </si>
-  <si>
     <t>Tổng</t>
   </si>
   <si>
@@ -190,12 +187,15 @@
   <si>
     <t>CÔNG TÁC CÁN BỘ</t>
   </si>
+  <si>
+    <t>MÃ KPI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -479,10 +479,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -492,6 +488,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -787,10 +787,10 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="41.42578125" customWidth="1"/>
@@ -806,9 +806,9 @@
     <col min="33" max="44" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="16.5" customHeight="1">
+    <row r="1" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -882,10 +882,10 @@
       <c r="Y1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="26" t="s">
+      <c r="Z1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="28" t="s">
+      <c r="AA1" s="26" t="s">
         <v>23</v>
       </c>
       <c r="AB1" s="5"/>
@@ -906,12 +906,12 @@
       <c r="AQ1" s="5"/>
       <c r="AR1" s="5"/>
     </row>
-    <row r="2" spans="1:44" ht="40.5" customHeight="1">
+    <row r="2" spans="1:44" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>31</v>
@@ -924,7 +924,7 @@
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>27</v>
@@ -949,7 +949,7 @@
       <c r="Z2" s="10">
         <v>0.2</v>
       </c>
-      <c r="AA2" s="27" t="s">
+      <c r="AA2" s="25" t="s">
         <v>28</v>
       </c>
       <c r="AB2" s="12"/>
@@ -970,7 +970,7 @@
       <c r="AQ2" s="12"/>
       <c r="AR2" s="12"/>
     </row>
-    <row r="3" spans="1:44" ht="40.5" customHeight="1">
+    <row r="3" spans="1:44" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
@@ -1028,7 +1028,7 @@
       <c r="AK3" s="5"/>
       <c r="AL3" s="5"/>
     </row>
-    <row r="4" spans="1:44" ht="40.5" customHeight="1">
+    <row r="4" spans="1:44" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H4" s="15" t="s">
         <v>27</v>
@@ -1086,7 +1086,7 @@
       <c r="AK4" s="5"/>
       <c r="AL4" s="5"/>
     </row>
-    <row r="5" spans="1:44" ht="40.5" customHeight="1">
+    <row r="5" spans="1:44" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>39</v>
       </c>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H5" s="16" t="s">
         <v>27</v>
@@ -1144,7 +1144,7 @@
       <c r="AK5" s="5"/>
       <c r="AL5" s="5"/>
     </row>
-    <row r="6" spans="1:44" ht="40.5" customHeight="1">
+    <row r="6" spans="1:44" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>43</v>
       </c>
@@ -1202,7 +1202,7 @@
       <c r="AK6" s="5"/>
       <c r="AL6" s="5"/>
     </row>
-    <row r="7" spans="1:44" ht="40.5" customHeight="1">
+    <row r="7" spans="1:44" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>47</v>
       </c>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>27</v>
@@ -1260,7 +1260,7 @@
       <c r="AK7" s="5"/>
       <c r="AL7" s="5"/>
     </row>
-    <row r="8" spans="1:44" ht="14.25">
+    <row r="8" spans="1:44" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="17"/>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
@@ -1306,10 +1306,10 @@
       <c r="AQ8" s="5"/>
       <c r="AR8" s="5"/>
     </row>
-    <row r="9" spans="1:44">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="17"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
@@ -1352,7 +1352,7 @@
       <c r="AQ9" s="5"/>
       <c r="AR9" s="5"/>
     </row>
-    <row r="10" spans="1:44">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -1398,7 +1398,7 @@
       <c r="AQ10" s="5"/>
       <c r="AR10" s="5"/>
     </row>
-    <row r="11" spans="1:44" ht="14.25">
+    <row r="11" spans="1:44" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -1444,7 +1444,7 @@
       <c r="AQ11" s="5"/>
       <c r="AR11" s="5"/>
     </row>
-    <row r="12" spans="1:44" ht="14.25">
+    <row r="12" spans="1:44" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="17"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -1490,7 +1490,7 @@
       <c r="AQ12" s="5"/>
       <c r="AR12" s="5"/>
     </row>
-    <row r="13" spans="1:44" ht="14.25">
+    <row r="13" spans="1:44" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -1536,7 +1536,7 @@
       <c r="AQ13" s="5"/>
       <c r="AR13" s="5"/>
     </row>
-    <row r="14" spans="1:44" ht="14.25">
+    <row r="14" spans="1:44" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -1582,7 +1582,7 @@
       <c r="AQ14" s="5"/>
       <c r="AR14" s="5"/>
     </row>
-    <row r="15" spans="1:44" ht="14.25">
+    <row r="15" spans="1:44" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="17"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -1628,7 +1628,7 @@
       <c r="AQ15" s="5"/>
       <c r="AR15" s="5"/>
     </row>
-    <row r="16" spans="1:44" ht="14.25">
+    <row r="16" spans="1:44" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -1674,7 +1674,7 @@
       <c r="AQ16" s="5"/>
       <c r="AR16" s="5"/>
     </row>
-    <row r="17" spans="1:44" ht="14.25">
+    <row r="17" spans="1:44" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -1720,7 +1720,7 @@
       <c r="AQ17" s="5"/>
       <c r="AR17" s="5"/>
     </row>
-    <row r="18" spans="1:44" ht="14.25">
+    <row r="18" spans="1:44" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
@@ -1766,7 +1766,7 @@
       <c r="AQ18" s="5"/>
       <c r="AR18" s="5"/>
     </row>
-    <row r="19" spans="1:44" ht="14.25">
+    <row r="19" spans="1:44" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -1812,7 +1812,7 @@
       <c r="AQ19" s="5"/>
       <c r="AR19" s="5"/>
     </row>
-    <row r="20" spans="1:44" ht="14.25">
+    <row r="20" spans="1:44" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -1858,7 +1858,7 @@
       <c r="AQ20" s="5"/>
       <c r="AR20" s="5"/>
     </row>
-    <row r="21" spans="1:44" ht="15.75" customHeight="1">
+    <row r="21" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -1904,7 +1904,7 @@
       <c r="AQ21" s="5"/>
       <c r="AR21" s="5"/>
     </row>
-    <row r="22" spans="1:44" ht="15.75" customHeight="1">
+    <row r="22" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="17"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -1950,7 +1950,7 @@
       <c r="AQ22" s="5"/>
       <c r="AR22" s="5"/>
     </row>
-    <row r="23" spans="1:44" ht="15.75" customHeight="1">
+    <row r="23" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -1996,7 +1996,7 @@
       <c r="AQ23" s="5"/>
       <c r="AR23" s="5"/>
     </row>
-    <row r="24" spans="1:44" ht="15.75" customHeight="1">
+    <row r="24" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -2042,7 +2042,7 @@
       <c r="AQ24" s="5"/>
       <c r="AR24" s="5"/>
     </row>
-    <row r="25" spans="1:44" ht="15.75" customHeight="1">
+    <row r="25" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
@@ -2088,7 +2088,7 @@
       <c r="AQ25" s="5"/>
       <c r="AR25" s="5"/>
     </row>
-    <row r="26" spans="1:44" ht="15.75" customHeight="1">
+    <row r="26" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -2134,7 +2134,7 @@
       <c r="AQ26" s="5"/>
       <c r="AR26" s="5"/>
     </row>
-    <row r="27" spans="1:44" ht="15.75" customHeight="1">
+    <row r="27" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="17"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -2180,7 +2180,7 @@
       <c r="AQ27" s="5"/>
       <c r="AR27" s="5"/>
     </row>
-    <row r="28" spans="1:44" ht="15.75" customHeight="1">
+    <row r="28" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
@@ -2226,7 +2226,7 @@
       <c r="AQ28" s="5"/>
       <c r="AR28" s="5"/>
     </row>
-    <row r="29" spans="1:44" ht="15.75" customHeight="1">
+    <row r="29" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
@@ -2272,7 +2272,7 @@
       <c r="AQ29" s="5"/>
       <c r="AR29" s="5"/>
     </row>
-    <row r="30" spans="1:44" ht="15.75" customHeight="1">
+    <row r="30" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17"/>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
@@ -2318,7 +2318,7 @@
       <c r="AQ30" s="5"/>
       <c r="AR30" s="5"/>
     </row>
-    <row r="31" spans="1:44" ht="15.75" customHeight="1">
+    <row r="31" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
@@ -2364,7 +2364,7 @@
       <c r="AQ31" s="5"/>
       <c r="AR31" s="5"/>
     </row>
-    <row r="32" spans="1:44" ht="15.75" customHeight="1">
+    <row r="32" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
@@ -2410,7 +2410,7 @@
       <c r="AQ32" s="5"/>
       <c r="AR32" s="5"/>
     </row>
-    <row r="33" spans="1:44" ht="15.75" customHeight="1">
+    <row r="33" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
@@ -2456,7 +2456,7 @@
       <c r="AQ33" s="5"/>
       <c r="AR33" s="5"/>
     </row>
-    <row r="34" spans="1:44" ht="15.75" customHeight="1">
+    <row r="34" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="17"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -2502,7 +2502,7 @@
       <c r="AQ34" s="5"/>
       <c r="AR34" s="5"/>
     </row>
-    <row r="35" spans="1:44" ht="15.75" customHeight="1">
+    <row r="35" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="17"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -2548,7 +2548,7 @@
       <c r="AQ35" s="5"/>
       <c r="AR35" s="5"/>
     </row>
-    <row r="36" spans="1:44" ht="15.75" customHeight="1">
+    <row r="36" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
@@ -2594,7 +2594,7 @@
       <c r="AQ36" s="5"/>
       <c r="AR36" s="5"/>
     </row>
-    <row r="37" spans="1:44" ht="15.75" customHeight="1">
+    <row r="37" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="17"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -2640,7 +2640,7 @@
       <c r="AQ37" s="5"/>
       <c r="AR37" s="5"/>
     </row>
-    <row r="38" spans="1:44" ht="15.75" customHeight="1">
+    <row r="38" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
@@ -2686,7 +2686,7 @@
       <c r="AQ38" s="5"/>
       <c r="AR38" s="5"/>
     </row>
-    <row r="39" spans="1:44" ht="15.75" customHeight="1">
+    <row r="39" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -2732,7 +2732,7 @@
       <c r="AQ39" s="5"/>
       <c r="AR39" s="5"/>
     </row>
-    <row r="40" spans="1:44" ht="15.75" customHeight="1">
+    <row r="40" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17"/>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
@@ -2778,7 +2778,7 @@
       <c r="AQ40" s="5"/>
       <c r="AR40" s="5"/>
     </row>
-    <row r="41" spans="1:44" ht="15.75" customHeight="1">
+    <row r="41" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="17"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
@@ -2824,7 +2824,7 @@
       <c r="AQ41" s="5"/>
       <c r="AR41" s="5"/>
     </row>
-    <row r="42" spans="1:44" ht="15.75" customHeight="1">
+    <row r="42" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17"/>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
@@ -2870,7 +2870,7 @@
       <c r="AQ42" s="5"/>
       <c r="AR42" s="5"/>
     </row>
-    <row r="43" spans="1:44" ht="15.75" customHeight="1">
+    <row r="43" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17"/>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
@@ -2916,7 +2916,7 @@
       <c r="AQ43" s="5"/>
       <c r="AR43" s="5"/>
     </row>
-    <row r="44" spans="1:44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17"/>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
@@ -2962,7 +2962,7 @@
       <c r="AQ44" s="5"/>
       <c r="AR44" s="5"/>
     </row>
-    <row r="45" spans="1:44" ht="15.75" customHeight="1">
+    <row r="45" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
@@ -3008,7 +3008,7 @@
       <c r="AQ45" s="5"/>
       <c r="AR45" s="5"/>
     </row>
-    <row r="46" spans="1:44" ht="15.75" customHeight="1">
+    <row r="46" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17"/>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
@@ -3054,7 +3054,7 @@
       <c r="AQ46" s="5"/>
       <c r="AR46" s="5"/>
     </row>
-    <row r="47" spans="1:44" ht="15.75" customHeight="1">
+    <row r="47" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="17"/>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
@@ -3100,7 +3100,7 @@
       <c r="AQ47" s="5"/>
       <c r="AR47" s="5"/>
     </row>
-    <row r="48" spans="1:44" ht="15.75" customHeight="1">
+    <row r="48" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="17"/>
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
@@ -3146,7 +3146,7 @@
       <c r="AQ48" s="5"/>
       <c r="AR48" s="5"/>
     </row>
-    <row r="49" spans="1:44" ht="15.75" customHeight="1">
+    <row r="49" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="17"/>
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
@@ -3192,7 +3192,7 @@
       <c r="AQ49" s="5"/>
       <c r="AR49" s="5"/>
     </row>
-    <row r="50" spans="1:44" ht="15.75" customHeight="1">
+    <row r="50" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="17"/>
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
@@ -3238,7 +3238,7 @@
       <c r="AQ50" s="5"/>
       <c r="AR50" s="5"/>
     </row>
-    <row r="51" spans="1:44" ht="15.75" customHeight="1">
+    <row r="51" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="17"/>
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
@@ -3284,7 +3284,7 @@
       <c r="AQ51" s="5"/>
       <c r="AR51" s="5"/>
     </row>
-    <row r="52" spans="1:44" ht="15.75" customHeight="1">
+    <row r="52" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="17"/>
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
@@ -3330,7 +3330,7 @@
       <c r="AQ52" s="5"/>
       <c r="AR52" s="5"/>
     </row>
-    <row r="53" spans="1:44" ht="15.75" customHeight="1">
+    <row r="53" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="17"/>
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
@@ -3376,7 +3376,7 @@
       <c r="AQ53" s="5"/>
       <c r="AR53" s="5"/>
     </row>
-    <row r="54" spans="1:44" ht="15.75" customHeight="1">
+    <row r="54" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="17"/>
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
@@ -3422,7 +3422,7 @@
       <c r="AQ54" s="5"/>
       <c r="AR54" s="5"/>
     </row>
-    <row r="55" spans="1:44" ht="15.75" customHeight="1">
+    <row r="55" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17"/>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
@@ -3468,7 +3468,7 @@
       <c r="AQ55" s="5"/>
       <c r="AR55" s="5"/>
     </row>
-    <row r="56" spans="1:44" ht="15.75" customHeight="1">
+    <row r="56" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="17"/>
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
@@ -3514,7 +3514,7 @@
       <c r="AQ56" s="5"/>
       <c r="AR56" s="5"/>
     </row>
-    <row r="57" spans="1:44" ht="15.75" customHeight="1">
+    <row r="57" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="17"/>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
@@ -3560,7 +3560,7 @@
       <c r="AQ57" s="5"/>
       <c r="AR57" s="5"/>
     </row>
-    <row r="58" spans="1:44" ht="15.75" customHeight="1">
+    <row r="58" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="17"/>
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
@@ -3606,7 +3606,7 @@
       <c r="AQ58" s="5"/>
       <c r="AR58" s="5"/>
     </row>
-    <row r="59" spans="1:44" ht="15.75" customHeight="1">
+    <row r="59" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="17"/>
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
@@ -3652,7 +3652,7 @@
       <c r="AQ59" s="5"/>
       <c r="AR59" s="5"/>
     </row>
-    <row r="60" spans="1:44" ht="15.75" customHeight="1">
+    <row r="60" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="17"/>
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
@@ -3698,7 +3698,7 @@
       <c r="AQ60" s="5"/>
       <c r="AR60" s="5"/>
     </row>
-    <row r="61" spans="1:44" ht="15.75" customHeight="1">
+    <row r="61" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="17"/>
       <c r="B61" s="18"/>
       <c r="C61" s="18"/>
@@ -3744,7 +3744,7 @@
       <c r="AQ61" s="5"/>
       <c r="AR61" s="5"/>
     </row>
-    <row r="62" spans="1:44" ht="15.75" customHeight="1">
+    <row r="62" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="17"/>
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
@@ -3790,7 +3790,7 @@
       <c r="AQ62" s="5"/>
       <c r="AR62" s="5"/>
     </row>
-    <row r="63" spans="1:44" ht="15.75" customHeight="1">
+    <row r="63" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="17"/>
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
@@ -3836,7 +3836,7 @@
       <c r="AQ63" s="5"/>
       <c r="AR63" s="5"/>
     </row>
-    <row r="64" spans="1:44" ht="15.75" customHeight="1">
+    <row r="64" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="17"/>
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
@@ -3882,7 +3882,7 @@
       <c r="AQ64" s="5"/>
       <c r="AR64" s="5"/>
     </row>
-    <row r="65" spans="1:44" ht="15.75" customHeight="1">
+    <row r="65" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="17"/>
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
@@ -3928,7 +3928,7 @@
       <c r="AQ65" s="5"/>
       <c r="AR65" s="5"/>
     </row>
-    <row r="66" spans="1:44" ht="15.75" customHeight="1">
+    <row r="66" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="17"/>
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
@@ -3974,7 +3974,7 @@
       <c r="AQ66" s="5"/>
       <c r="AR66" s="5"/>
     </row>
-    <row r="67" spans="1:44" ht="15.75" customHeight="1">
+    <row r="67" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="17"/>
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
@@ -4020,7 +4020,7 @@
       <c r="AQ67" s="5"/>
       <c r="AR67" s="5"/>
     </row>
-    <row r="68" spans="1:44" ht="15.75" customHeight="1">
+    <row r="68" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="17"/>
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
@@ -4066,7 +4066,7 @@
       <c r="AQ68" s="5"/>
       <c r="AR68" s="5"/>
     </row>
-    <row r="69" spans="1:44" ht="15.75" customHeight="1">
+    <row r="69" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="17"/>
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
@@ -4112,7 +4112,7 @@
       <c r="AQ69" s="5"/>
       <c r="AR69" s="5"/>
     </row>
-    <row r="70" spans="1:44" ht="15.75" customHeight="1">
+    <row r="70" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="17"/>
       <c r="B70" s="18"/>
       <c r="C70" s="18"/>
@@ -4158,7 +4158,7 @@
       <c r="AQ70" s="5"/>
       <c r="AR70" s="5"/>
     </row>
-    <row r="71" spans="1:44" ht="15.75" customHeight="1">
+    <row r="71" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="17"/>
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
@@ -4204,7 +4204,7 @@
       <c r="AQ71" s="5"/>
       <c r="AR71" s="5"/>
     </row>
-    <row r="72" spans="1:44" ht="15.75" customHeight="1">
+    <row r="72" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="17"/>
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
@@ -4250,7 +4250,7 @@
       <c r="AQ72" s="5"/>
       <c r="AR72" s="5"/>
     </row>
-    <row r="73" spans="1:44" ht="15.75" customHeight="1">
+    <row r="73" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="17"/>
       <c r="B73" s="18"/>
       <c r="C73" s="18"/>
@@ -4296,7 +4296,7 @@
       <c r="AQ73" s="5"/>
       <c r="AR73" s="5"/>
     </row>
-    <row r="74" spans="1:44" ht="15.75" customHeight="1">
+    <row r="74" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="17"/>
       <c r="B74" s="18"/>
       <c r="C74" s="18"/>
@@ -4342,7 +4342,7 @@
       <c r="AQ74" s="5"/>
       <c r="AR74" s="5"/>
     </row>
-    <row r="75" spans="1:44" ht="15.75" customHeight="1">
+    <row r="75" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="17"/>
       <c r="B75" s="18"/>
       <c r="C75" s="18"/>
@@ -4388,7 +4388,7 @@
       <c r="AQ75" s="5"/>
       <c r="AR75" s="5"/>
     </row>
-    <row r="76" spans="1:44" ht="15.75" customHeight="1">
+    <row r="76" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="17"/>
       <c r="B76" s="18"/>
       <c r="C76" s="18"/>
@@ -4434,7 +4434,7 @@
       <c r="AQ76" s="5"/>
       <c r="AR76" s="5"/>
     </row>
-    <row r="77" spans="1:44" ht="15.75" customHeight="1">
+    <row r="77" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="17"/>
       <c r="B77" s="18"/>
       <c r="C77" s="18"/>
@@ -4480,7 +4480,7 @@
       <c r="AQ77" s="5"/>
       <c r="AR77" s="5"/>
     </row>
-    <row r="78" spans="1:44" ht="15.75" customHeight="1">
+    <row r="78" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="17"/>
       <c r="B78" s="18"/>
       <c r="C78" s="18"/>
@@ -4526,7 +4526,7 @@
       <c r="AQ78" s="5"/>
       <c r="AR78" s="5"/>
     </row>
-    <row r="79" spans="1:44" ht="15.75" customHeight="1">
+    <row r="79" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="17"/>
       <c r="B79" s="18"/>
       <c r="C79" s="18"/>
@@ -4572,7 +4572,7 @@
       <c r="AQ79" s="5"/>
       <c r="AR79" s="5"/>
     </row>
-    <row r="80" spans="1:44" ht="15.75" customHeight="1">
+    <row r="80" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="17"/>
       <c r="B80" s="18"/>
       <c r="C80" s="18"/>
@@ -4618,7 +4618,7 @@
       <c r="AQ80" s="5"/>
       <c r="AR80" s="5"/>
     </row>
-    <row r="81" spans="1:44" ht="15.75" customHeight="1">
+    <row r="81" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="17"/>
       <c r="B81" s="18"/>
       <c r="C81" s="18"/>
@@ -4664,7 +4664,7 @@
       <c r="AQ81" s="5"/>
       <c r="AR81" s="5"/>
     </row>
-    <row r="82" spans="1:44" ht="15.75" customHeight="1">
+    <row r="82" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="17"/>
       <c r="B82" s="18"/>
       <c r="C82" s="18"/>
@@ -4710,7 +4710,7 @@
       <c r="AQ82" s="5"/>
       <c r="AR82" s="5"/>
     </row>
-    <row r="83" spans="1:44" ht="15.75" customHeight="1">
+    <row r="83" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="17"/>
       <c r="B83" s="18"/>
       <c r="C83" s="18"/>
@@ -4756,7 +4756,7 @@
       <c r="AQ83" s="5"/>
       <c r="AR83" s="5"/>
     </row>
-    <row r="84" spans="1:44" ht="15.75" customHeight="1">
+    <row r="84" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="17"/>
       <c r="B84" s="18"/>
       <c r="C84" s="18"/>
@@ -4802,7 +4802,7 @@
       <c r="AQ84" s="5"/>
       <c r="AR84" s="5"/>
     </row>
-    <row r="85" spans="1:44" ht="15.75" customHeight="1">
+    <row r="85" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="17"/>
       <c r="B85" s="18"/>
       <c r="C85" s="18"/>
@@ -4848,7 +4848,7 @@
       <c r="AQ85" s="5"/>
       <c r="AR85" s="5"/>
     </row>
-    <row r="86" spans="1:44" ht="15.75" customHeight="1">
+    <row r="86" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="17"/>
       <c r="B86" s="18"/>
       <c r="C86" s="18"/>
@@ -4894,7 +4894,7 @@
       <c r="AQ86" s="5"/>
       <c r="AR86" s="5"/>
     </row>
-    <row r="87" spans="1:44" ht="15.75" customHeight="1">
+    <row r="87" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="17"/>
       <c r="B87" s="18"/>
       <c r="C87" s="18"/>
@@ -4940,7 +4940,7 @@
       <c r="AQ87" s="5"/>
       <c r="AR87" s="5"/>
     </row>
-    <row r="88" spans="1:44" ht="15.75" customHeight="1">
+    <row r="88" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="17"/>
       <c r="B88" s="18"/>
       <c r="C88" s="18"/>
@@ -4986,7 +4986,7 @@
       <c r="AQ88" s="5"/>
       <c r="AR88" s="5"/>
     </row>
-    <row r="89" spans="1:44" ht="15.75" customHeight="1">
+    <row r="89" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="17"/>
       <c r="B89" s="18"/>
       <c r="C89" s="18"/>
@@ -5032,7 +5032,7 @@
       <c r="AQ89" s="5"/>
       <c r="AR89" s="5"/>
     </row>
-    <row r="90" spans="1:44" ht="15.75" customHeight="1">
+    <row r="90" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="17"/>
       <c r="B90" s="18"/>
       <c r="C90" s="18"/>
@@ -5078,7 +5078,7 @@
       <c r="AQ90" s="5"/>
       <c r="AR90" s="5"/>
     </row>
-    <row r="91" spans="1:44" ht="15.75" customHeight="1">
+    <row r="91" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="17"/>
       <c r="B91" s="18"/>
       <c r="C91" s="18"/>
@@ -5124,7 +5124,7 @@
       <c r="AQ91" s="5"/>
       <c r="AR91" s="5"/>
     </row>
-    <row r="92" spans="1:44" ht="15.75" customHeight="1">
+    <row r="92" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="17"/>
       <c r="B92" s="18"/>
       <c r="C92" s="18"/>
@@ -5170,7 +5170,7 @@
       <c r="AQ92" s="5"/>
       <c r="AR92" s="5"/>
     </row>
-    <row r="93" spans="1:44" ht="15.75" customHeight="1">
+    <row r="93" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="17"/>
       <c r="B93" s="18"/>
       <c r="C93" s="18"/>
@@ -5216,7 +5216,7 @@
       <c r="AQ93" s="5"/>
       <c r="AR93" s="5"/>
     </row>
-    <row r="94" spans="1:44" ht="15.75" customHeight="1">
+    <row r="94" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="17"/>
       <c r="B94" s="18"/>
       <c r="C94" s="18"/>
@@ -5262,7 +5262,7 @@
       <c r="AQ94" s="5"/>
       <c r="AR94" s="5"/>
     </row>
-    <row r="95" spans="1:44" ht="15.75" customHeight="1">
+    <row r="95" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="17"/>
       <c r="B95" s="18"/>
       <c r="C95" s="18"/>
@@ -5308,7 +5308,7 @@
       <c r="AQ95" s="5"/>
       <c r="AR95" s="5"/>
     </row>
-    <row r="96" spans="1:44" ht="15.75" customHeight="1">
+    <row r="96" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="17"/>
       <c r="B96" s="18"/>
       <c r="C96" s="18"/>
@@ -5354,7 +5354,7 @@
       <c r="AQ96" s="5"/>
       <c r="AR96" s="5"/>
     </row>
-    <row r="97" spans="1:44" ht="15.75" customHeight="1">
+    <row r="97" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="17"/>
       <c r="B97" s="18"/>
       <c r="C97" s="18"/>
@@ -5400,7 +5400,7 @@
       <c r="AQ97" s="5"/>
       <c r="AR97" s="5"/>
     </row>
-    <row r="98" spans="1:44" ht="15.75" customHeight="1">
+    <row r="98" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="17"/>
       <c r="B98" s="18"/>
       <c r="C98" s="18"/>
@@ -5446,7 +5446,7 @@
       <c r="AQ98" s="5"/>
       <c r="AR98" s="5"/>
     </row>
-    <row r="99" spans="1:44" ht="15.75" customHeight="1">
+    <row r="99" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="17"/>
       <c r="B99" s="18"/>
       <c r="C99" s="18"/>
@@ -5492,7 +5492,7 @@
       <c r="AQ99" s="5"/>
       <c r="AR99" s="5"/>
     </row>
-    <row r="100" spans="1:44" ht="15.75" customHeight="1">
+    <row r="100" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="17"/>
       <c r="B100" s="18"/>
       <c r="C100" s="18"/>
@@ -5538,7 +5538,7 @@
       <c r="AQ100" s="5"/>
       <c r="AR100" s="5"/>
     </row>
-    <row r="101" spans="1:44" ht="15.75" customHeight="1">
+    <row r="101" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="17"/>
       <c r="B101" s="18"/>
       <c r="C101" s="18"/>
@@ -5584,7 +5584,7 @@
       <c r="AQ101" s="5"/>
       <c r="AR101" s="5"/>
     </row>
-    <row r="102" spans="1:44" ht="15.75" customHeight="1">
+    <row r="102" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="17"/>
       <c r="B102" s="18"/>
       <c r="C102" s="18"/>
@@ -5630,7 +5630,7 @@
       <c r="AQ102" s="5"/>
       <c r="AR102" s="5"/>
     </row>
-    <row r="103" spans="1:44" ht="15.75" customHeight="1">
+    <row r="103" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="17"/>
       <c r="B103" s="18"/>
       <c r="C103" s="18"/>
@@ -5676,7 +5676,7 @@
       <c r="AQ103" s="5"/>
       <c r="AR103" s="5"/>
     </row>
-    <row r="104" spans="1:44" ht="15.75" customHeight="1">
+    <row r="104" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="17"/>
       <c r="B104" s="18"/>
       <c r="C104" s="18"/>
@@ -5722,7 +5722,7 @@
       <c r="AQ104" s="5"/>
       <c r="AR104" s="5"/>
     </row>
-    <row r="105" spans="1:44" ht="15.75" customHeight="1">
+    <row r="105" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="17"/>
       <c r="B105" s="18"/>
       <c r="C105" s="18"/>
@@ -5768,7 +5768,7 @@
       <c r="AQ105" s="5"/>
       <c r="AR105" s="5"/>
     </row>
-    <row r="106" spans="1:44" ht="15.75" customHeight="1">
+    <row r="106" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="17"/>
       <c r="B106" s="18"/>
       <c r="C106" s="18"/>
@@ -5814,7 +5814,7 @@
       <c r="AQ106" s="5"/>
       <c r="AR106" s="5"/>
     </row>
-    <row r="107" spans="1:44" ht="15.75" customHeight="1">
+    <row r="107" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="17"/>
       <c r="B107" s="18"/>
       <c r="C107" s="18"/>
@@ -5860,7 +5860,7 @@
       <c r="AQ107" s="5"/>
       <c r="AR107" s="5"/>
     </row>
-    <row r="108" spans="1:44" ht="15.75" customHeight="1">
+    <row r="108" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="17"/>
       <c r="B108" s="18"/>
       <c r="C108" s="18"/>
@@ -5906,7 +5906,7 @@
       <c r="AQ108" s="5"/>
       <c r="AR108" s="5"/>
     </row>
-    <row r="109" spans="1:44" ht="15.75" customHeight="1">
+    <row r="109" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="17"/>
       <c r="B109" s="18"/>
       <c r="C109" s="18"/>
@@ -5952,7 +5952,7 @@
       <c r="AQ109" s="5"/>
       <c r="AR109" s="5"/>
     </row>
-    <row r="110" spans="1:44" ht="15.75" customHeight="1">
+    <row r="110" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="17"/>
       <c r="B110" s="18"/>
       <c r="C110" s="18"/>
@@ -5998,7 +5998,7 @@
       <c r="AQ110" s="5"/>
       <c r="AR110" s="5"/>
     </row>
-    <row r="111" spans="1:44" ht="15.75" customHeight="1">
+    <row r="111" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="17"/>
       <c r="B111" s="18"/>
       <c r="C111" s="18"/>
@@ -6044,7 +6044,7 @@
       <c r="AQ111" s="5"/>
       <c r="AR111" s="5"/>
     </row>
-    <row r="112" spans="1:44" ht="15.75" customHeight="1">
+    <row r="112" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="17"/>
       <c r="B112" s="18"/>
       <c r="C112" s="18"/>
@@ -6090,7 +6090,7 @@
       <c r="AQ112" s="5"/>
       <c r="AR112" s="5"/>
     </row>
-    <row r="113" spans="1:44" ht="15.75" customHeight="1">
+    <row r="113" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="17"/>
       <c r="B113" s="18"/>
       <c r="C113" s="18"/>
@@ -6136,7 +6136,7 @@
       <c r="AQ113" s="5"/>
       <c r="AR113" s="5"/>
     </row>
-    <row r="114" spans="1:44" ht="15.75" customHeight="1">
+    <row r="114" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="17"/>
       <c r="B114" s="18"/>
       <c r="C114" s="18"/>
@@ -6182,7 +6182,7 @@
       <c r="AQ114" s="5"/>
       <c r="AR114" s="5"/>
     </row>
-    <row r="115" spans="1:44" ht="15.75" customHeight="1">
+    <row r="115" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="17"/>
       <c r="B115" s="18"/>
       <c r="C115" s="18"/>
@@ -6228,7 +6228,7 @@
       <c r="AQ115" s="5"/>
       <c r="AR115" s="5"/>
     </row>
-    <row r="116" spans="1:44" ht="15.75" customHeight="1">
+    <row r="116" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="17"/>
       <c r="B116" s="18"/>
       <c r="C116" s="18"/>
@@ -6274,7 +6274,7 @@
       <c r="AQ116" s="5"/>
       <c r="AR116" s="5"/>
     </row>
-    <row r="117" spans="1:44" ht="15.75" customHeight="1">
+    <row r="117" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="17"/>
       <c r="B117" s="18"/>
       <c r="C117" s="18"/>
@@ -6320,7 +6320,7 @@
       <c r="AQ117" s="5"/>
       <c r="AR117" s="5"/>
     </row>
-    <row r="118" spans="1:44" ht="15.75" customHeight="1">
+    <row r="118" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="17"/>
       <c r="B118" s="18"/>
       <c r="C118" s="18"/>
@@ -6366,7 +6366,7 @@
       <c r="AQ118" s="5"/>
       <c r="AR118" s="5"/>
     </row>
-    <row r="119" spans="1:44" ht="15.75" customHeight="1">
+    <row r="119" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="17"/>
       <c r="B119" s="18"/>
       <c r="C119" s="18"/>
@@ -6412,7 +6412,7 @@
       <c r="AQ119" s="5"/>
       <c r="AR119" s="5"/>
     </row>
-    <row r="120" spans="1:44" ht="15.75" customHeight="1">
+    <row r="120" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="17"/>
       <c r="B120" s="18"/>
       <c r="C120" s="18"/>
@@ -6458,7 +6458,7 @@
       <c r="AQ120" s="5"/>
       <c r="AR120" s="5"/>
     </row>
-    <row r="121" spans="1:44" ht="15.75" customHeight="1">
+    <row r="121" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="17"/>
       <c r="B121" s="18"/>
       <c r="C121" s="18"/>
@@ -6504,7 +6504,7 @@
       <c r="AQ121" s="5"/>
       <c r="AR121" s="5"/>
     </row>
-    <row r="122" spans="1:44" ht="15.75" customHeight="1">
+    <row r="122" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="17"/>
       <c r="B122" s="18"/>
       <c r="C122" s="18"/>
@@ -6550,7 +6550,7 @@
       <c r="AQ122" s="5"/>
       <c r="AR122" s="5"/>
     </row>
-    <row r="123" spans="1:44" ht="15.75" customHeight="1">
+    <row r="123" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="17"/>
       <c r="B123" s="18"/>
       <c r="C123" s="18"/>
@@ -6596,7 +6596,7 @@
       <c r="AQ123" s="5"/>
       <c r="AR123" s="5"/>
     </row>
-    <row r="124" spans="1:44" ht="15.75" customHeight="1">
+    <row r="124" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="17"/>
       <c r="B124" s="18"/>
       <c r="C124" s="18"/>
@@ -6642,7 +6642,7 @@
       <c r="AQ124" s="5"/>
       <c r="AR124" s="5"/>
     </row>
-    <row r="125" spans="1:44" ht="15.75" customHeight="1">
+    <row r="125" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="17"/>
       <c r="B125" s="18"/>
       <c r="C125" s="18"/>
@@ -6688,7 +6688,7 @@
       <c r="AQ125" s="5"/>
       <c r="AR125" s="5"/>
     </row>
-    <row r="126" spans="1:44" ht="15.75" customHeight="1">
+    <row r="126" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="17"/>
       <c r="B126" s="18"/>
       <c r="C126" s="18"/>
@@ -6734,7 +6734,7 @@
       <c r="AQ126" s="5"/>
       <c r="AR126" s="5"/>
     </row>
-    <row r="127" spans="1:44" ht="15.75" customHeight="1">
+    <row r="127" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="17"/>
       <c r="B127" s="18"/>
       <c r="C127" s="18"/>
@@ -6780,7 +6780,7 @@
       <c r="AQ127" s="5"/>
       <c r="AR127" s="5"/>
     </row>
-    <row r="128" spans="1:44" ht="15.75" customHeight="1">
+    <row r="128" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="17"/>
       <c r="B128" s="18"/>
       <c r="C128" s="18"/>
@@ -6826,7 +6826,7 @@
       <c r="AQ128" s="5"/>
       <c r="AR128" s="5"/>
     </row>
-    <row r="129" spans="1:44" ht="15.75" customHeight="1">
+    <row r="129" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="17"/>
       <c r="B129" s="18"/>
       <c r="C129" s="18"/>
@@ -6872,7 +6872,7 @@
       <c r="AQ129" s="5"/>
       <c r="AR129" s="5"/>
     </row>
-    <row r="130" spans="1:44" ht="15.75" customHeight="1">
+    <row r="130" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="17"/>
       <c r="B130" s="18"/>
       <c r="C130" s="18"/>
@@ -6918,7 +6918,7 @@
       <c r="AQ130" s="5"/>
       <c r="AR130" s="5"/>
     </row>
-    <row r="131" spans="1:44" ht="15.75" customHeight="1">
+    <row r="131" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="17"/>
       <c r="B131" s="18"/>
       <c r="C131" s="18"/>
@@ -6964,7 +6964,7 @@
       <c r="AQ131" s="5"/>
       <c r="AR131" s="5"/>
     </row>
-    <row r="132" spans="1:44" ht="15.75" customHeight="1">
+    <row r="132" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="17"/>
       <c r="B132" s="18"/>
       <c r="C132" s="18"/>
@@ -7010,7 +7010,7 @@
       <c r="AQ132" s="5"/>
       <c r="AR132" s="5"/>
     </row>
-    <row r="133" spans="1:44" ht="15.75" customHeight="1">
+    <row r="133" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="17"/>
       <c r="B133" s="18"/>
       <c r="C133" s="18"/>
@@ -7056,7 +7056,7 @@
       <c r="AQ133" s="5"/>
       <c r="AR133" s="5"/>
     </row>
-    <row r="134" spans="1:44" ht="15.75" customHeight="1">
+    <row r="134" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="17"/>
       <c r="B134" s="18"/>
       <c r="C134" s="18"/>
@@ -7102,7 +7102,7 @@
       <c r="AQ134" s="5"/>
       <c r="AR134" s="5"/>
     </row>
-    <row r="135" spans="1:44" ht="15.75" customHeight="1">
+    <row r="135" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="17"/>
       <c r="B135" s="18"/>
       <c r="C135" s="18"/>
@@ -7148,7 +7148,7 @@
       <c r="AQ135" s="5"/>
       <c r="AR135" s="5"/>
     </row>
-    <row r="136" spans="1:44" ht="15.75" customHeight="1">
+    <row r="136" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="17"/>
       <c r="B136" s="18"/>
       <c r="C136" s="18"/>
@@ -7194,7 +7194,7 @@
       <c r="AQ136" s="5"/>
       <c r="AR136" s="5"/>
     </row>
-    <row r="137" spans="1:44" ht="15.75" customHeight="1">
+    <row r="137" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="17"/>
       <c r="B137" s="18"/>
       <c r="C137" s="18"/>
@@ -7240,7 +7240,7 @@
       <c r="AQ137" s="5"/>
       <c r="AR137" s="5"/>
     </row>
-    <row r="138" spans="1:44" ht="15.75" customHeight="1">
+    <row r="138" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="17"/>
       <c r="B138" s="18"/>
       <c r="C138" s="18"/>
@@ -7286,7 +7286,7 @@
       <c r="AQ138" s="5"/>
       <c r="AR138" s="5"/>
     </row>
-    <row r="139" spans="1:44" ht="15.75" customHeight="1">
+    <row r="139" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="17"/>
       <c r="B139" s="18"/>
       <c r="C139" s="18"/>
@@ -7332,7 +7332,7 @@
       <c r="AQ139" s="5"/>
       <c r="AR139" s="5"/>
     </row>
-    <row r="140" spans="1:44" ht="15.75" customHeight="1">
+    <row r="140" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="17"/>
       <c r="B140" s="18"/>
       <c r="C140" s="18"/>
@@ -7378,7 +7378,7 @@
       <c r="AQ140" s="5"/>
       <c r="AR140" s="5"/>
     </row>
-    <row r="141" spans="1:44" ht="15.75" customHeight="1">
+    <row r="141" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="17"/>
       <c r="B141" s="18"/>
       <c r="C141" s="18"/>
@@ -7424,7 +7424,7 @@
       <c r="AQ141" s="5"/>
       <c r="AR141" s="5"/>
     </row>
-    <row r="142" spans="1:44" ht="15.75" customHeight="1">
+    <row r="142" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="17"/>
       <c r="B142" s="18"/>
       <c r="C142" s="18"/>
@@ -7470,7 +7470,7 @@
       <c r="AQ142" s="5"/>
       <c r="AR142" s="5"/>
     </row>
-    <row r="143" spans="1:44" ht="15.75" customHeight="1">
+    <row r="143" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="17"/>
       <c r="B143" s="18"/>
       <c r="C143" s="18"/>
@@ -7516,7 +7516,7 @@
       <c r="AQ143" s="5"/>
       <c r="AR143" s="5"/>
     </row>
-    <row r="144" spans="1:44" ht="15.75" customHeight="1">
+    <row r="144" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="17"/>
       <c r="B144" s="18"/>
       <c r="C144" s="18"/>
@@ -7562,7 +7562,7 @@
       <c r="AQ144" s="5"/>
       <c r="AR144" s="5"/>
     </row>
-    <row r="145" spans="1:44" ht="15.75" customHeight="1">
+    <row r="145" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="17"/>
       <c r="B145" s="18"/>
       <c r="C145" s="18"/>
@@ -7608,7 +7608,7 @@
       <c r="AQ145" s="5"/>
       <c r="AR145" s="5"/>
     </row>
-    <row r="146" spans="1:44" ht="15.75" customHeight="1">
+    <row r="146" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="17"/>
       <c r="B146" s="18"/>
       <c r="C146" s="18"/>
@@ -7654,7 +7654,7 @@
       <c r="AQ146" s="5"/>
       <c r="AR146" s="5"/>
     </row>
-    <row r="147" spans="1:44" ht="15.75" customHeight="1">
+    <row r="147" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="17"/>
       <c r="B147" s="18"/>
       <c r="C147" s="18"/>
@@ -7700,7 +7700,7 @@
       <c r="AQ147" s="5"/>
       <c r="AR147" s="5"/>
     </row>
-    <row r="148" spans="1:44" ht="15.75" customHeight="1">
+    <row r="148" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="17"/>
       <c r="B148" s="18"/>
       <c r="C148" s="18"/>
@@ -7746,7 +7746,7 @@
       <c r="AQ148" s="5"/>
       <c r="AR148" s="5"/>
     </row>
-    <row r="149" spans="1:44" ht="15.75" customHeight="1">
+    <row r="149" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="17"/>
       <c r="B149" s="18"/>
       <c r="C149" s="18"/>
@@ -7792,7 +7792,7 @@
       <c r="AQ149" s="5"/>
       <c r="AR149" s="5"/>
     </row>
-    <row r="150" spans="1:44" ht="15.75" customHeight="1">
+    <row r="150" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="17"/>
       <c r="B150" s="18"/>
       <c r="C150" s="18"/>
@@ -7838,7 +7838,7 @@
       <c r="AQ150" s="5"/>
       <c r="AR150" s="5"/>
     </row>
-    <row r="151" spans="1:44" ht="15.75" customHeight="1">
+    <row r="151" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="17"/>
       <c r="B151" s="18"/>
       <c r="C151" s="18"/>
@@ -7884,7 +7884,7 @@
       <c r="AQ151" s="5"/>
       <c r="AR151" s="5"/>
     </row>
-    <row r="152" spans="1:44" ht="15.75" customHeight="1">
+    <row r="152" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="17"/>
       <c r="B152" s="18"/>
       <c r="C152" s="18"/>
@@ -7930,7 +7930,7 @@
       <c r="AQ152" s="5"/>
       <c r="AR152" s="5"/>
     </row>
-    <row r="153" spans="1:44" ht="15.75" customHeight="1">
+    <row r="153" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="17"/>
       <c r="B153" s="18"/>
       <c r="C153" s="18"/>
@@ -7976,7 +7976,7 @@
       <c r="AQ153" s="5"/>
       <c r="AR153" s="5"/>
     </row>
-    <row r="154" spans="1:44" ht="15.75" customHeight="1">
+    <row r="154" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="17"/>
       <c r="B154" s="18"/>
       <c r="C154" s="18"/>
@@ -8022,7 +8022,7 @@
       <c r="AQ154" s="5"/>
       <c r="AR154" s="5"/>
     </row>
-    <row r="155" spans="1:44" ht="15.75" customHeight="1">
+    <row r="155" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="17"/>
       <c r="B155" s="18"/>
       <c r="C155" s="18"/>
@@ -8068,7 +8068,7 @@
       <c r="AQ155" s="5"/>
       <c r="AR155" s="5"/>
     </row>
-    <row r="156" spans="1:44" ht="15.75" customHeight="1">
+    <row r="156" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="17"/>
       <c r="B156" s="18"/>
       <c r="C156" s="18"/>
@@ -8114,7 +8114,7 @@
       <c r="AQ156" s="5"/>
       <c r="AR156" s="5"/>
     </row>
-    <row r="157" spans="1:44" ht="15.75" customHeight="1">
+    <row r="157" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="17"/>
       <c r="B157" s="18"/>
       <c r="C157" s="18"/>
@@ -8160,7 +8160,7 @@
       <c r="AQ157" s="5"/>
       <c r="AR157" s="5"/>
     </row>
-    <row r="158" spans="1:44" ht="15.75" customHeight="1">
+    <row r="158" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="17"/>
       <c r="B158" s="18"/>
       <c r="C158" s="18"/>
@@ -8206,7 +8206,7 @@
       <c r="AQ158" s="5"/>
       <c r="AR158" s="5"/>
     </row>
-    <row r="159" spans="1:44" ht="15.75" customHeight="1">
+    <row r="159" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="17"/>
       <c r="B159" s="18"/>
       <c r="C159" s="18"/>
@@ -8252,7 +8252,7 @@
       <c r="AQ159" s="5"/>
       <c r="AR159" s="5"/>
     </row>
-    <row r="160" spans="1:44" ht="15.75" customHeight="1">
+    <row r="160" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="17"/>
       <c r="B160" s="18"/>
       <c r="C160" s="18"/>
@@ -8298,7 +8298,7 @@
       <c r="AQ160" s="5"/>
       <c r="AR160" s="5"/>
     </row>
-    <row r="161" spans="1:44" ht="15.75" customHeight="1">
+    <row r="161" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="17"/>
       <c r="B161" s="18"/>
       <c r="C161" s="18"/>
@@ -8344,7 +8344,7 @@
       <c r="AQ161" s="5"/>
       <c r="AR161" s="5"/>
     </row>
-    <row r="162" spans="1:44" ht="15.75" customHeight="1">
+    <row r="162" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="17"/>
       <c r="B162" s="18"/>
       <c r="C162" s="18"/>
@@ -8390,7 +8390,7 @@
       <c r="AQ162" s="5"/>
       <c r="AR162" s="5"/>
     </row>
-    <row r="163" spans="1:44" ht="15.75" customHeight="1">
+    <row r="163" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="17"/>
       <c r="B163" s="18"/>
       <c r="C163" s="18"/>
@@ -8436,7 +8436,7 @@
       <c r="AQ163" s="5"/>
       <c r="AR163" s="5"/>
     </row>
-    <row r="164" spans="1:44" ht="15.75" customHeight="1">
+    <row r="164" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="17"/>
       <c r="B164" s="18"/>
       <c r="C164" s="18"/>
@@ -8482,7 +8482,7 @@
       <c r="AQ164" s="5"/>
       <c r="AR164" s="5"/>
     </row>
-    <row r="165" spans="1:44" ht="15.75" customHeight="1">
+    <row r="165" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="17"/>
       <c r="B165" s="18"/>
       <c r="C165" s="18"/>
@@ -8528,7 +8528,7 @@
       <c r="AQ165" s="5"/>
       <c r="AR165" s="5"/>
     </row>
-    <row r="166" spans="1:44" ht="15.75" customHeight="1">
+    <row r="166" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="17"/>
       <c r="B166" s="18"/>
       <c r="C166" s="18"/>
@@ -8574,7 +8574,7 @@
       <c r="AQ166" s="5"/>
       <c r="AR166" s="5"/>
     </row>
-    <row r="167" spans="1:44" ht="15.75" customHeight="1">
+    <row r="167" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="17"/>
       <c r="B167" s="18"/>
       <c r="C167" s="18"/>
@@ -8620,7 +8620,7 @@
       <c r="AQ167" s="5"/>
       <c r="AR167" s="5"/>
     </row>
-    <row r="168" spans="1:44" ht="15.75" customHeight="1">
+    <row r="168" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="17"/>
       <c r="B168" s="18"/>
       <c r="C168" s="18"/>
@@ -8666,7 +8666,7 @@
       <c r="AQ168" s="5"/>
       <c r="AR168" s="5"/>
     </row>
-    <row r="169" spans="1:44" ht="15.75" customHeight="1">
+    <row r="169" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="17"/>
       <c r="B169" s="18"/>
       <c r="C169" s="18"/>
@@ -8712,7 +8712,7 @@
       <c r="AQ169" s="5"/>
       <c r="AR169" s="5"/>
     </row>
-    <row r="170" spans="1:44" ht="15.75" customHeight="1">
+    <row r="170" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="17"/>
       <c r="B170" s="18"/>
       <c r="C170" s="18"/>
@@ -8758,7 +8758,7 @@
       <c r="AQ170" s="5"/>
       <c r="AR170" s="5"/>
     </row>
-    <row r="171" spans="1:44" ht="15.75" customHeight="1">
+    <row r="171" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="17"/>
       <c r="B171" s="18"/>
       <c r="C171" s="18"/>
@@ -8804,7 +8804,7 @@
       <c r="AQ171" s="5"/>
       <c r="AR171" s="5"/>
     </row>
-    <row r="172" spans="1:44" ht="15.75" customHeight="1">
+    <row r="172" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="17"/>
       <c r="B172" s="18"/>
       <c r="C172" s="18"/>
@@ -8850,7 +8850,7 @@
       <c r="AQ172" s="5"/>
       <c r="AR172" s="5"/>
     </row>
-    <row r="173" spans="1:44" ht="15.75" customHeight="1">
+    <row r="173" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="17"/>
       <c r="B173" s="18"/>
       <c r="C173" s="18"/>
@@ -8896,7 +8896,7 @@
       <c r="AQ173" s="5"/>
       <c r="AR173" s="5"/>
     </row>
-    <row r="174" spans="1:44" ht="15.75" customHeight="1">
+    <row r="174" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="17"/>
       <c r="B174" s="18"/>
       <c r="C174" s="18"/>
@@ -8942,7 +8942,7 @@
       <c r="AQ174" s="5"/>
       <c r="AR174" s="5"/>
     </row>
-    <row r="175" spans="1:44" ht="15.75" customHeight="1">
+    <row r="175" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="17"/>
       <c r="B175" s="18"/>
       <c r="C175" s="18"/>
@@ -8988,7 +8988,7 @@
       <c r="AQ175" s="5"/>
       <c r="AR175" s="5"/>
     </row>
-    <row r="176" spans="1:44" ht="15.75" customHeight="1">
+    <row r="176" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="17"/>
       <c r="B176" s="18"/>
       <c r="C176" s="18"/>
@@ -9034,7 +9034,7 @@
       <c r="AQ176" s="5"/>
       <c r="AR176" s="5"/>
     </row>
-    <row r="177" spans="1:44" ht="15.75" customHeight="1">
+    <row r="177" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="17"/>
       <c r="B177" s="18"/>
       <c r="C177" s="18"/>
@@ -9080,7 +9080,7 @@
       <c r="AQ177" s="5"/>
       <c r="AR177" s="5"/>
     </row>
-    <row r="178" spans="1:44" ht="15.75" customHeight="1">
+    <row r="178" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="17"/>
       <c r="B178" s="18"/>
       <c r="C178" s="18"/>
@@ -9126,7 +9126,7 @@
       <c r="AQ178" s="5"/>
       <c r="AR178" s="5"/>
     </row>
-    <row r="179" spans="1:44" ht="15.75" customHeight="1">
+    <row r="179" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="17"/>
       <c r="B179" s="18"/>
       <c r="C179" s="18"/>
@@ -9172,7 +9172,7 @@
       <c r="AQ179" s="5"/>
       <c r="AR179" s="5"/>
     </row>
-    <row r="180" spans="1:44" ht="15.75" customHeight="1">
+    <row r="180" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="17"/>
       <c r="B180" s="18"/>
       <c r="C180" s="18"/>
@@ -9218,7 +9218,7 @@
       <c r="AQ180" s="5"/>
       <c r="AR180" s="5"/>
     </row>
-    <row r="181" spans="1:44" ht="15.75" customHeight="1">
+    <row r="181" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="17"/>
       <c r="B181" s="18"/>
       <c r="C181" s="18"/>
@@ -9264,7 +9264,7 @@
       <c r="AQ181" s="5"/>
       <c r="AR181" s="5"/>
     </row>
-    <row r="182" spans="1:44" ht="15.75" customHeight="1">
+    <row r="182" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="17"/>
       <c r="B182" s="18"/>
       <c r="C182" s="18"/>
@@ -9310,7 +9310,7 @@
       <c r="AQ182" s="5"/>
       <c r="AR182" s="5"/>
     </row>
-    <row r="183" spans="1:44" ht="15.75" customHeight="1">
+    <row r="183" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="17"/>
       <c r="B183" s="18"/>
       <c r="C183" s="18"/>
@@ -9356,7 +9356,7 @@
       <c r="AQ183" s="5"/>
       <c r="AR183" s="5"/>
     </row>
-    <row r="184" spans="1:44" ht="15.75" customHeight="1">
+    <row r="184" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="17"/>
       <c r="B184" s="18"/>
       <c r="C184" s="18"/>
@@ -9402,7 +9402,7 @@
       <c r="AQ184" s="5"/>
       <c r="AR184" s="5"/>
     </row>
-    <row r="185" spans="1:44" ht="15.75" customHeight="1">
+    <row r="185" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="17"/>
       <c r="B185" s="18"/>
       <c r="C185" s="18"/>
@@ -9448,7 +9448,7 @@
       <c r="AQ185" s="5"/>
       <c r="AR185" s="5"/>
     </row>
-    <row r="186" spans="1:44" ht="15.75" customHeight="1">
+    <row r="186" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="17"/>
       <c r="B186" s="18"/>
       <c r="C186" s="18"/>
@@ -9494,7 +9494,7 @@
       <c r="AQ186" s="5"/>
       <c r="AR186" s="5"/>
     </row>
-    <row r="187" spans="1:44" ht="15.75" customHeight="1">
+    <row r="187" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="17"/>
       <c r="B187" s="18"/>
       <c r="C187" s="18"/>
@@ -9540,7 +9540,7 @@
       <c r="AQ187" s="5"/>
       <c r="AR187" s="5"/>
     </row>
-    <row r="188" spans="1:44" ht="15.75" customHeight="1">
+    <row r="188" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="17"/>
       <c r="B188" s="18"/>
       <c r="C188" s="18"/>
@@ -9586,7 +9586,7 @@
       <c r="AQ188" s="5"/>
       <c r="AR188" s="5"/>
     </row>
-    <row r="189" spans="1:44" ht="15.75" customHeight="1">
+    <row r="189" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="17"/>
       <c r="B189" s="18"/>
       <c r="C189" s="18"/>
@@ -9632,7 +9632,7 @@
       <c r="AQ189" s="5"/>
       <c r="AR189" s="5"/>
     </row>
-    <row r="190" spans="1:44" ht="15.75" customHeight="1">
+    <row r="190" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="17"/>
       <c r="B190" s="18"/>
       <c r="C190" s="18"/>
@@ -9678,7 +9678,7 @@
       <c r="AQ190" s="5"/>
       <c r="AR190" s="5"/>
     </row>
-    <row r="191" spans="1:44" ht="15.75" customHeight="1">
+    <row r="191" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="17"/>
       <c r="B191" s="18"/>
       <c r="C191" s="18"/>
@@ -9724,7 +9724,7 @@
       <c r="AQ191" s="5"/>
       <c r="AR191" s="5"/>
     </row>
-    <row r="192" spans="1:44" ht="15.75" customHeight="1">
+    <row r="192" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="17"/>
       <c r="B192" s="18"/>
       <c r="C192" s="18"/>
@@ -9770,7 +9770,7 @@
       <c r="AQ192" s="5"/>
       <c r="AR192" s="5"/>
     </row>
-    <row r="193" spans="1:44" ht="15.75" customHeight="1">
+    <row r="193" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="17"/>
       <c r="B193" s="18"/>
       <c r="C193" s="18"/>
@@ -9816,7 +9816,7 @@
       <c r="AQ193" s="5"/>
       <c r="AR193" s="5"/>
     </row>
-    <row r="194" spans="1:44" ht="15.75" customHeight="1">
+    <row r="194" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="17"/>
       <c r="B194" s="18"/>
       <c r="C194" s="18"/>
@@ -9862,7 +9862,7 @@
       <c r="AQ194" s="5"/>
       <c r="AR194" s="5"/>
     </row>
-    <row r="195" spans="1:44" ht="15.75" customHeight="1">
+    <row r="195" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="17"/>
       <c r="B195" s="18"/>
       <c r="C195" s="18"/>
@@ -9908,7 +9908,7 @@
       <c r="AQ195" s="5"/>
       <c r="AR195" s="5"/>
     </row>
-    <row r="196" spans="1:44" ht="15.75" customHeight="1">
+    <row r="196" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="17"/>
       <c r="B196" s="18"/>
       <c r="C196" s="18"/>
@@ -9954,7 +9954,7 @@
       <c r="AQ196" s="5"/>
       <c r="AR196" s="5"/>
     </row>
-    <row r="197" spans="1:44" ht="15.75" customHeight="1">
+    <row r="197" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="17"/>
       <c r="B197" s="18"/>
       <c r="C197" s="18"/>
@@ -10000,7 +10000,7 @@
       <c r="AQ197" s="5"/>
       <c r="AR197" s="5"/>
     </row>
-    <row r="198" spans="1:44" ht="15.75" customHeight="1">
+    <row r="198" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="17"/>
       <c r="B198" s="18"/>
       <c r="C198" s="18"/>
@@ -10046,7 +10046,7 @@
       <c r="AQ198" s="5"/>
       <c r="AR198" s="5"/>
     </row>
-    <row r="199" spans="1:44" ht="15.75" customHeight="1">
+    <row r="199" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="17"/>
       <c r="B199" s="18"/>
       <c r="C199" s="18"/>
@@ -10092,7 +10092,7 @@
       <c r="AQ199" s="5"/>
       <c r="AR199" s="5"/>
     </row>
-    <row r="200" spans="1:44" ht="15.75" customHeight="1">
+    <row r="200" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="17"/>
       <c r="B200" s="18"/>
       <c r="C200" s="18"/>
@@ -10138,7 +10138,7 @@
       <c r="AQ200" s="5"/>
       <c r="AR200" s="5"/>
     </row>
-    <row r="201" spans="1:44" ht="15.75" customHeight="1">
+    <row r="201" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="17"/>
       <c r="B201" s="18"/>
       <c r="C201" s="18"/>
@@ -10184,7 +10184,7 @@
       <c r="AQ201" s="5"/>
       <c r="AR201" s="5"/>
     </row>
-    <row r="202" spans="1:44" ht="15.75" customHeight="1">
+    <row r="202" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="17"/>
       <c r="B202" s="18"/>
       <c r="C202" s="18"/>
@@ -10230,7 +10230,7 @@
       <c r="AQ202" s="5"/>
       <c r="AR202" s="5"/>
     </row>
-    <row r="203" spans="1:44" ht="15.75" customHeight="1">
+    <row r="203" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="17"/>
       <c r="B203" s="18"/>
       <c r="C203" s="18"/>
@@ -10276,7 +10276,7 @@
       <c r="AQ203" s="5"/>
       <c r="AR203" s="5"/>
     </row>
-    <row r="204" spans="1:44" ht="15.75" customHeight="1">
+    <row r="204" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="17"/>
       <c r="B204" s="18"/>
       <c r="C204" s="18"/>
@@ -10322,7 +10322,7 @@
       <c r="AQ204" s="5"/>
       <c r="AR204" s="5"/>
     </row>
-    <row r="205" spans="1:44" ht="15.75" customHeight="1">
+    <row r="205" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="17"/>
       <c r="B205" s="18"/>
       <c r="C205" s="18"/>
@@ -10368,7 +10368,7 @@
       <c r="AQ205" s="5"/>
       <c r="AR205" s="5"/>
     </row>
-    <row r="206" spans="1:44" ht="15.75" customHeight="1">
+    <row r="206" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="17"/>
       <c r="B206" s="18"/>
       <c r="C206" s="18"/>
@@ -10414,7 +10414,7 @@
       <c r="AQ206" s="5"/>
       <c r="AR206" s="5"/>
     </row>
-    <row r="207" spans="1:44" ht="15.75" customHeight="1">
+    <row r="207" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="17"/>
       <c r="B207" s="18"/>
       <c r="C207" s="18"/>
@@ -10460,7 +10460,7 @@
       <c r="AQ207" s="5"/>
       <c r="AR207" s="5"/>
     </row>
-    <row r="208" spans="1:44" ht="15.75" customHeight="1">
+    <row r="208" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="17"/>
       <c r="B208" s="18"/>
       <c r="C208" s="18"/>
@@ -10506,7 +10506,7 @@
       <c r="AQ208" s="5"/>
       <c r="AR208" s="5"/>
     </row>
-    <row r="209" spans="1:44" ht="15.75" customHeight="1">
+    <row r="209" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="17"/>
       <c r="B209" s="18"/>
       <c r="C209" s="18"/>
@@ -10552,7 +10552,7 @@
       <c r="AQ209" s="5"/>
       <c r="AR209" s="5"/>
     </row>
-    <row r="210" spans="1:44" ht="15.75" customHeight="1">
+    <row r="210" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="17"/>
       <c r="B210" s="18"/>
       <c r="C210" s="18"/>
@@ -10598,7 +10598,7 @@
       <c r="AQ210" s="5"/>
       <c r="AR210" s="5"/>
     </row>
-    <row r="211" spans="1:44" ht="15.75" customHeight="1">
+    <row r="211" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="17"/>
       <c r="B211" s="18"/>
       <c r="C211" s="18"/>
@@ -10644,7 +10644,7 @@
       <c r="AQ211" s="5"/>
       <c r="AR211" s="5"/>
     </row>
-    <row r="212" spans="1:44" ht="15.75" customHeight="1">
+    <row r="212" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="17"/>
       <c r="B212" s="18"/>
       <c r="C212" s="18"/>
@@ -10690,7 +10690,7 @@
       <c r="AQ212" s="5"/>
       <c r="AR212" s="5"/>
     </row>
-    <row r="213" spans="1:44" ht="15.75" customHeight="1">
+    <row r="213" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="17"/>
       <c r="B213" s="18"/>
       <c r="C213" s="18"/>
@@ -10736,7 +10736,7 @@
       <c r="AQ213" s="5"/>
       <c r="AR213" s="5"/>
     </row>
-    <row r="214" spans="1:44" ht="15.75" customHeight="1">
+    <row r="214" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="17"/>
       <c r="B214" s="18"/>
       <c r="C214" s="18"/>
@@ -10782,7 +10782,7 @@
       <c r="AQ214" s="5"/>
       <c r="AR214" s="5"/>
     </row>
-    <row r="215" spans="1:44" ht="15.75" customHeight="1">
+    <row r="215" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="17"/>
       <c r="B215" s="18"/>
       <c r="C215" s="18"/>
@@ -10828,7 +10828,7 @@
       <c r="AQ215" s="5"/>
       <c r="AR215" s="5"/>
     </row>
-    <row r="216" spans="1:44" ht="15.75" customHeight="1">
+    <row r="216" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="17"/>
       <c r="B216" s="18"/>
       <c r="C216" s="18"/>
@@ -10874,7 +10874,7 @@
       <c r="AQ216" s="5"/>
       <c r="AR216" s="5"/>
     </row>
-    <row r="217" spans="1:44" ht="15.75" customHeight="1">
+    <row r="217" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="17"/>
       <c r="B217" s="18"/>
       <c r="C217" s="18"/>
@@ -10920,7 +10920,7 @@
       <c r="AQ217" s="5"/>
       <c r="AR217" s="5"/>
     </row>
-    <row r="218" spans="1:44" ht="15.75" customHeight="1">
+    <row r="218" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="17"/>
       <c r="B218" s="18"/>
       <c r="C218" s="18"/>
@@ -10966,7 +10966,7 @@
       <c r="AQ218" s="5"/>
       <c r="AR218" s="5"/>
     </row>
-    <row r="219" spans="1:44" ht="15.75" customHeight="1">
+    <row r="219" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="17"/>
       <c r="B219" s="18"/>
       <c r="C219" s="18"/>
@@ -11012,7 +11012,7 @@
       <c r="AQ219" s="5"/>
       <c r="AR219" s="5"/>
     </row>
-    <row r="220" spans="1:44" ht="15.75" customHeight="1">
+    <row r="220" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="17"/>
       <c r="B220" s="18"/>
       <c r="C220" s="18"/>
@@ -11058,786 +11058,786 @@
       <c r="AQ220" s="5"/>
       <c r="AR220" s="5"/>
     </row>
-    <row r="221" spans="1:44" ht="15.75" customHeight="1"/>
-    <row r="222" spans="1:44" ht="15.75" customHeight="1"/>
-    <row r="223" spans="1:44" ht="15.75" customHeight="1"/>
-    <row r="224" spans="1:44" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="221" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A9:C9"/>
@@ -11861,1011 +11861,1011 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="26" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1"/>
-    <row r="2" ht="12.75" customHeight="1"/>
-    <row r="3" ht="12.75" customHeight="1"/>
-    <row r="4" ht="12.75" customHeight="1"/>
-    <row r="5" ht="12.75" customHeight="1"/>
-    <row r="6" ht="12.75" customHeight="1"/>
-    <row r="7" ht="12.75" customHeight="1"/>
-    <row r="8" ht="12.75" customHeight="1"/>
-    <row r="9" ht="12.75" customHeight="1"/>
-    <row r="10" ht="12.75" customHeight="1"/>
-    <row r="11" ht="12.75" customHeight="1"/>
-    <row r="12" ht="12.75" customHeight="1"/>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
-    <row r="17" ht="12.75" customHeight="1"/>
-    <row r="18" ht="12.75" customHeight="1"/>
-    <row r="19" ht="12.75" customHeight="1"/>
-    <row r="20" ht="12.75" customHeight="1"/>
-    <row r="21" ht="12.75" customHeight="1"/>
-    <row r="22" ht="12.75" customHeight="1"/>
-    <row r="23" ht="12.75" customHeight="1"/>
-    <row r="24" ht="12.75" customHeight="1"/>
-    <row r="25" ht="12.75" customHeight="1"/>
-    <row r="26" ht="12.75" customHeight="1"/>
-    <row r="27" ht="12.75" customHeight="1"/>
-    <row r="28" ht="12.75" customHeight="1"/>
-    <row r="29" ht="12.75" customHeight="1"/>
-    <row r="30" ht="12.75" customHeight="1"/>
-    <row r="31" ht="12.75" customHeight="1"/>
-    <row r="32" ht="12.75" customHeight="1"/>
-    <row r="33" ht="12.75" customHeight="1"/>
-    <row r="34" ht="12.75" customHeight="1"/>
-    <row r="35" ht="12.75" customHeight="1"/>
-    <row r="36" ht="12.75" customHeight="1"/>
-    <row r="37" ht="12.75" customHeight="1"/>
-    <row r="38" ht="12.75" customHeight="1"/>
-    <row r="39" ht="12.75" customHeight="1"/>
-    <row r="40" ht="12.75" customHeight="1"/>
-    <row r="41" ht="12.75" customHeight="1"/>
-    <row r="42" ht="12.75" customHeight="1"/>
-    <row r="43" ht="12.75" customHeight="1"/>
-    <row r="44" ht="12.75" customHeight="1"/>
-    <row r="45" ht="12.75" customHeight="1"/>
-    <row r="46" ht="12.75" customHeight="1"/>
-    <row r="47" ht="12.75" customHeight="1"/>
-    <row r="48" ht="12.75" customHeight="1"/>
-    <row r="49" ht="12.75" customHeight="1"/>
-    <row r="50" ht="12.75" customHeight="1"/>
-    <row r="51" ht="12.75" customHeight="1"/>
-    <row r="52" ht="12.75" customHeight="1"/>
-    <row r="53" ht="12.75" customHeight="1"/>
-    <row r="54" ht="12.75" customHeight="1"/>
-    <row r="55" ht="12.75" customHeight="1"/>
-    <row r="56" ht="12.75" customHeight="1"/>
-    <row r="57" ht="12.75" customHeight="1"/>
-    <row r="58" ht="12.75" customHeight="1"/>
-    <row r="59" ht="12.75" customHeight="1"/>
-    <row r="60" ht="12.75" customHeight="1"/>
-    <row r="61" ht="12.75" customHeight="1"/>
-    <row r="62" ht="12.75" customHeight="1"/>
-    <row r="63" ht="12.75" customHeight="1"/>
-    <row r="64" ht="12.75" customHeight="1"/>
-    <row r="65" ht="12.75" customHeight="1"/>
-    <row r="66" ht="12.75" customHeight="1"/>
-    <row r="67" ht="12.75" customHeight="1"/>
-    <row r="68" ht="12.75" customHeight="1"/>
-    <row r="69" ht="12.75" customHeight="1"/>
-    <row r="70" ht="12.75" customHeight="1"/>
-    <row r="71" ht="12.75" customHeight="1"/>
-    <row r="72" ht="12.75" customHeight="1"/>
-    <row r="73" ht="12.75" customHeight="1"/>
-    <row r="74" ht="12.75" customHeight="1"/>
-    <row r="75" ht="12.75" customHeight="1"/>
-    <row r="76" ht="12.75" customHeight="1"/>
-    <row r="77" ht="12.75" customHeight="1"/>
-    <row r="78" ht="12.75" customHeight="1"/>
-    <row r="79" ht="12.75" customHeight="1"/>
-    <row r="80" ht="12.75" customHeight="1"/>
-    <row r="81" ht="12.75" customHeight="1"/>
-    <row r="82" ht="12.75" customHeight="1"/>
-    <row r="83" ht="12.75" customHeight="1"/>
-    <row r="84" ht="12.75" customHeight="1"/>
-    <row r="85" ht="12.75" customHeight="1"/>
-    <row r="86" ht="12.75" customHeight="1"/>
-    <row r="87" ht="12.75" customHeight="1"/>
-    <row r="88" ht="12.75" customHeight="1"/>
-    <row r="89" ht="12.75" customHeight="1"/>
-    <row r="90" ht="12.75" customHeight="1"/>
-    <row r="91" ht="12.75" customHeight="1"/>
-    <row r="92" ht="12.75" customHeight="1"/>
-    <row r="93" ht="12.75" customHeight="1"/>
-    <row r="94" ht="12.75" customHeight="1"/>
-    <row r="95" ht="12.75" customHeight="1"/>
-    <row r="96" ht="12.75" customHeight="1"/>
-    <row r="97" ht="12.75" customHeight="1"/>
-    <row r="98" ht="12.75" customHeight="1"/>
-    <row r="99" ht="12.75" customHeight="1"/>
-    <row r="100" ht="12.75" customHeight="1"/>
-    <row r="101" ht="12.75" customHeight="1"/>
-    <row r="102" ht="12.75" customHeight="1"/>
-    <row r="103" ht="12.75" customHeight="1"/>
-    <row r="104" ht="12.75" customHeight="1"/>
-    <row r="105" ht="12.75" customHeight="1"/>
-    <row r="106" ht="12.75" customHeight="1"/>
-    <row r="107" ht="12.75" customHeight="1"/>
-    <row r="108" ht="12.75" customHeight="1"/>
-    <row r="109" ht="12.75" customHeight="1"/>
-    <row r="110" ht="12.75" customHeight="1"/>
-    <row r="111" ht="12.75" customHeight="1"/>
-    <row r="112" ht="12.75" customHeight="1"/>
-    <row r="113" ht="12.75" customHeight="1"/>
-    <row r="114" ht="12.75" customHeight="1"/>
-    <row r="115" ht="12.75" customHeight="1"/>
-    <row r="116" ht="12.75" customHeight="1"/>
-    <row r="117" ht="12.75" customHeight="1"/>
-    <row r="118" ht="12.75" customHeight="1"/>
-    <row r="119" ht="12.75" customHeight="1"/>
-    <row r="120" ht="12.75" customHeight="1"/>
-    <row r="121" ht="12.75" customHeight="1"/>
-    <row r="122" ht="12.75" customHeight="1"/>
-    <row r="123" ht="12.75" customHeight="1"/>
-    <row r="124" ht="12.75" customHeight="1"/>
-    <row r="125" ht="12.75" customHeight="1"/>
-    <row r="126" ht="12.75" customHeight="1"/>
-    <row r="127" ht="12.75" customHeight="1"/>
-    <row r="128" ht="12.75" customHeight="1"/>
-    <row r="129" ht="12.75" customHeight="1"/>
-    <row r="130" ht="12.75" customHeight="1"/>
-    <row r="131" ht="12.75" customHeight="1"/>
-    <row r="132" ht="12.75" customHeight="1"/>
-    <row r="133" ht="12.75" customHeight="1"/>
-    <row r="134" ht="12.75" customHeight="1"/>
-    <row r="135" ht="12.75" customHeight="1"/>
-    <row r="136" ht="12.75" customHeight="1"/>
-    <row r="137" ht="12.75" customHeight="1"/>
-    <row r="138" ht="12.75" customHeight="1"/>
-    <row r="139" ht="12.75" customHeight="1"/>
-    <row r="140" ht="12.75" customHeight="1"/>
-    <row r="141" ht="12.75" customHeight="1"/>
-    <row r="142" ht="12.75" customHeight="1"/>
-    <row r="143" ht="12.75" customHeight="1"/>
-    <row r="144" ht="12.75" customHeight="1"/>
-    <row r="145" ht="12.75" customHeight="1"/>
-    <row r="146" ht="12.75" customHeight="1"/>
-    <row r="147" ht="12.75" customHeight="1"/>
-    <row r="148" ht="12.75" customHeight="1"/>
-    <row r="149" ht="12.75" customHeight="1"/>
-    <row r="150" ht="12.75" customHeight="1"/>
-    <row r="151" ht="12.75" customHeight="1"/>
-    <row r="152" ht="12.75" customHeight="1"/>
-    <row r="153" ht="12.75" customHeight="1"/>
-    <row r="154" ht="12.75" customHeight="1"/>
-    <row r="155" ht="12.75" customHeight="1"/>
-    <row r="156" ht="12.75" customHeight="1"/>
-    <row r="157" ht="12.75" customHeight="1"/>
-    <row r="158" ht="12.75" customHeight="1"/>
-    <row r="159" ht="12.75" customHeight="1"/>
-    <row r="160" ht="12.75" customHeight="1"/>
-    <row r="161" ht="12.75" customHeight="1"/>
-    <row r="162" ht="12.75" customHeight="1"/>
-    <row r="163" ht="12.75" customHeight="1"/>
-    <row r="164" ht="12.75" customHeight="1"/>
-    <row r="165" ht="12.75" customHeight="1"/>
-    <row r="166" ht="12.75" customHeight="1"/>
-    <row r="167" ht="12.75" customHeight="1"/>
-    <row r="168" ht="12.75" customHeight="1"/>
-    <row r="169" ht="12.75" customHeight="1"/>
-    <row r="170" ht="12.75" customHeight="1"/>
-    <row r="171" ht="12.75" customHeight="1"/>
-    <row r="172" ht="12.75" customHeight="1"/>
-    <row r="173" ht="12.75" customHeight="1"/>
-    <row r="174" ht="12.75" customHeight="1"/>
-    <row r="175" ht="12.75" customHeight="1"/>
-    <row r="176" ht="12.75" customHeight="1"/>
-    <row r="177" ht="12.75" customHeight="1"/>
-    <row r="178" ht="12.75" customHeight="1"/>
-    <row r="179" ht="12.75" customHeight="1"/>
-    <row r="180" ht="12.75" customHeight="1"/>
-    <row r="181" ht="12.75" customHeight="1"/>
-    <row r="182" ht="12.75" customHeight="1"/>
-    <row r="183" ht="12.75" customHeight="1"/>
-    <row r="184" ht="12.75" customHeight="1"/>
-    <row r="185" ht="12.75" customHeight="1"/>
-    <row r="186" ht="12.75" customHeight="1"/>
-    <row r="187" ht="12.75" customHeight="1"/>
-    <row r="188" ht="12.75" customHeight="1"/>
-    <row r="189" ht="12.75" customHeight="1"/>
-    <row r="190" ht="12.75" customHeight="1"/>
-    <row r="191" ht="12.75" customHeight="1"/>
-    <row r="192" ht="12.75" customHeight="1"/>
-    <row r="193" ht="12.75" customHeight="1"/>
-    <row r="194" ht="12.75" customHeight="1"/>
-    <row r="195" ht="12.75" customHeight="1"/>
-    <row r="196" ht="12.75" customHeight="1"/>
-    <row r="197" ht="12.75" customHeight="1"/>
-    <row r="198" ht="12.75" customHeight="1"/>
-    <row r="199" ht="12.75" customHeight="1"/>
-    <row r="200" ht="12.75" customHeight="1"/>
-    <row r="201" ht="12.75" customHeight="1"/>
-    <row r="202" ht="12.75" customHeight="1"/>
-    <row r="203" ht="12.75" customHeight="1"/>
-    <row r="204" ht="12.75" customHeight="1"/>
-    <row r="205" ht="12.75" customHeight="1"/>
-    <row r="206" ht="12.75" customHeight="1"/>
-    <row r="207" ht="12.75" customHeight="1"/>
-    <row r="208" ht="12.75" customHeight="1"/>
-    <row r="209" ht="12.75" customHeight="1"/>
-    <row r="210" ht="12.75" customHeight="1"/>
-    <row r="211" ht="12.75" customHeight="1"/>
-    <row r="212" ht="12.75" customHeight="1"/>
-    <row r="213" ht="12.75" customHeight="1"/>
-    <row r="214" ht="12.75" customHeight="1"/>
-    <row r="215" ht="12.75" customHeight="1"/>
-    <row r="216" ht="12.75" customHeight="1"/>
-    <row r="217" ht="12.75" customHeight="1"/>
-    <row r="218" ht="12.75" customHeight="1"/>
-    <row r="219" ht="12.75" customHeight="1"/>
-    <row r="220" ht="12.75" customHeight="1"/>
-    <row r="221" ht="12.75" customHeight="1"/>
-    <row r="222" ht="12.75" customHeight="1"/>
-    <row r="223" ht="12.75" customHeight="1"/>
-    <row r="224" ht="12.75" customHeight="1"/>
-    <row r="225" ht="12.75" customHeight="1"/>
-    <row r="226" ht="12.75" customHeight="1"/>
-    <row r="227" ht="12.75" customHeight="1"/>
-    <row r="228" ht="12.75" customHeight="1"/>
-    <row r="229" ht="12.75" customHeight="1"/>
-    <row r="230" ht="12.75" customHeight="1"/>
-    <row r="231" ht="12.75" customHeight="1"/>
-    <row r="232" ht="12.75" customHeight="1"/>
-    <row r="233" ht="12.75" customHeight="1"/>
-    <row r="234" ht="12.75" customHeight="1"/>
-    <row r="235" ht="12.75" customHeight="1"/>
-    <row r="236" ht="12.75" customHeight="1"/>
-    <row r="237" ht="12.75" customHeight="1"/>
-    <row r="238" ht="12.75" customHeight="1"/>
-    <row r="239" ht="12.75" customHeight="1"/>
-    <row r="240" ht="12.75" customHeight="1"/>
-    <row r="241" ht="12.75" customHeight="1"/>
-    <row r="242" ht="12.75" customHeight="1"/>
-    <row r="243" ht="12.75" customHeight="1"/>
-    <row r="244" ht="12.75" customHeight="1"/>
-    <row r="245" ht="12.75" customHeight="1"/>
-    <row r="246" ht="12.75" customHeight="1"/>
-    <row r="247" ht="12.75" customHeight="1"/>
-    <row r="248" ht="12.75" customHeight="1"/>
-    <row r="249" ht="12.75" customHeight="1"/>
-    <row r="250" ht="12.75" customHeight="1"/>
-    <row r="251" ht="12.75" customHeight="1"/>
-    <row r="252" ht="12.75" customHeight="1"/>
-    <row r="253" ht="12.75" customHeight="1"/>
-    <row r="254" ht="12.75" customHeight="1"/>
-    <row r="255" ht="12.75" customHeight="1"/>
-    <row r="256" ht="12.75" customHeight="1"/>
-    <row r="257" ht="12.75" customHeight="1"/>
-    <row r="258" ht="12.75" customHeight="1"/>
-    <row r="259" ht="12.75" customHeight="1"/>
-    <row r="260" ht="12.75" customHeight="1"/>
-    <row r="261" ht="12.75" customHeight="1"/>
-    <row r="262" ht="12.75" customHeight="1"/>
-    <row r="263" ht="12.75" customHeight="1"/>
-    <row r="264" ht="12.75" customHeight="1"/>
-    <row r="265" ht="12.75" customHeight="1"/>
-    <row r="266" ht="12.75" customHeight="1"/>
-    <row r="267" ht="12.75" customHeight="1"/>
-    <row r="268" ht="12.75" customHeight="1"/>
-    <row r="269" ht="12.75" customHeight="1"/>
-    <row r="270" ht="12.75" customHeight="1"/>
-    <row r="271" ht="12.75" customHeight="1"/>
-    <row r="272" ht="12.75" customHeight="1"/>
-    <row r="273" ht="12.75" customHeight="1"/>
-    <row r="274" ht="12.75" customHeight="1"/>
-    <row r="275" ht="12.75" customHeight="1"/>
-    <row r="276" ht="12.75" customHeight="1"/>
-    <row r="277" ht="12.75" customHeight="1"/>
-    <row r="278" ht="12.75" customHeight="1"/>
-    <row r="279" ht="12.75" customHeight="1"/>
-    <row r="280" ht="12.75" customHeight="1"/>
-    <row r="281" ht="12.75" customHeight="1"/>
-    <row r="282" ht="12.75" customHeight="1"/>
-    <row r="283" ht="12.75" customHeight="1"/>
-    <row r="284" ht="12.75" customHeight="1"/>
-    <row r="285" ht="12.75" customHeight="1"/>
-    <row r="286" ht="12.75" customHeight="1"/>
-    <row r="287" ht="12.75" customHeight="1"/>
-    <row r="288" ht="12.75" customHeight="1"/>
-    <row r="289" ht="12.75" customHeight="1"/>
-    <row r="290" ht="12.75" customHeight="1"/>
-    <row r="291" ht="12.75" customHeight="1"/>
-    <row r="292" ht="12.75" customHeight="1"/>
-    <row r="293" ht="12.75" customHeight="1"/>
-    <row r="294" ht="12.75" customHeight="1"/>
-    <row r="295" ht="12.75" customHeight="1"/>
-    <row r="296" ht="12.75" customHeight="1"/>
-    <row r="297" ht="12.75" customHeight="1"/>
-    <row r="298" ht="12.75" customHeight="1"/>
-    <row r="299" ht="12.75" customHeight="1"/>
-    <row r="300" ht="12.75" customHeight="1"/>
-    <row r="301" ht="12.75" customHeight="1"/>
-    <row r="302" ht="12.75" customHeight="1"/>
-    <row r="303" ht="12.75" customHeight="1"/>
-    <row r="304" ht="12.75" customHeight="1"/>
-    <row r="305" ht="12.75" customHeight="1"/>
-    <row r="306" ht="12.75" customHeight="1"/>
-    <row r="307" ht="12.75" customHeight="1"/>
-    <row r="308" ht="12.75" customHeight="1"/>
-    <row r="309" ht="12.75" customHeight="1"/>
-    <row r="310" ht="12.75" customHeight="1"/>
-    <row r="311" ht="12.75" customHeight="1"/>
-    <row r="312" ht="12.75" customHeight="1"/>
-    <row r="313" ht="12.75" customHeight="1"/>
-    <row r="314" ht="12.75" customHeight="1"/>
-    <row r="315" ht="12.75" customHeight="1"/>
-    <row r="316" ht="12.75" customHeight="1"/>
-    <row r="317" ht="12.75" customHeight="1"/>
-    <row r="318" ht="12.75" customHeight="1"/>
-    <row r="319" ht="12.75" customHeight="1"/>
-    <row r="320" ht="12.75" customHeight="1"/>
-    <row r="321" ht="12.75" customHeight="1"/>
-    <row r="322" ht="12.75" customHeight="1"/>
-    <row r="323" ht="12.75" customHeight="1"/>
-    <row r="324" ht="12.75" customHeight="1"/>
-    <row r="325" ht="12.75" customHeight="1"/>
-    <row r="326" ht="12.75" customHeight="1"/>
-    <row r="327" ht="12.75" customHeight="1"/>
-    <row r="328" ht="12.75" customHeight="1"/>
-    <row r="329" ht="12.75" customHeight="1"/>
-    <row r="330" ht="12.75" customHeight="1"/>
-    <row r="331" ht="12.75" customHeight="1"/>
-    <row r="332" ht="12.75" customHeight="1"/>
-    <row r="333" ht="12.75" customHeight="1"/>
-    <row r="334" ht="12.75" customHeight="1"/>
-    <row r="335" ht="12.75" customHeight="1"/>
-    <row r="336" ht="12.75" customHeight="1"/>
-    <row r="337" ht="12.75" customHeight="1"/>
-    <row r="338" ht="12.75" customHeight="1"/>
-    <row r="339" ht="12.75" customHeight="1"/>
-    <row r="340" ht="12.75" customHeight="1"/>
-    <row r="341" ht="12.75" customHeight="1"/>
-    <row r="342" ht="12.75" customHeight="1"/>
-    <row r="343" ht="12.75" customHeight="1"/>
-    <row r="344" ht="12.75" customHeight="1"/>
-    <row r="345" ht="12.75" customHeight="1"/>
-    <row r="346" ht="12.75" customHeight="1"/>
-    <row r="347" ht="12.75" customHeight="1"/>
-    <row r="348" ht="12.75" customHeight="1"/>
-    <row r="349" ht="12.75" customHeight="1"/>
-    <row r="350" ht="12.75" customHeight="1"/>
-    <row r="351" ht="12.75" customHeight="1"/>
-    <row r="352" ht="12.75" customHeight="1"/>
-    <row r="353" ht="12.75" customHeight="1"/>
-    <row r="354" ht="12.75" customHeight="1"/>
-    <row r="355" ht="12.75" customHeight="1"/>
-    <row r="356" ht="12.75" customHeight="1"/>
-    <row r="357" ht="12.75" customHeight="1"/>
-    <row r="358" ht="12.75" customHeight="1"/>
-    <row r="359" ht="12.75" customHeight="1"/>
-    <row r="360" ht="12.75" customHeight="1"/>
-    <row r="361" ht="12.75" customHeight="1"/>
-    <row r="362" ht="12.75" customHeight="1"/>
-    <row r="363" ht="12.75" customHeight="1"/>
-    <row r="364" ht="12.75" customHeight="1"/>
-    <row r="365" ht="12.75" customHeight="1"/>
-    <row r="366" ht="12.75" customHeight="1"/>
-    <row r="367" ht="12.75" customHeight="1"/>
-    <row r="368" ht="12.75" customHeight="1"/>
-    <row r="369" ht="12.75" customHeight="1"/>
-    <row r="370" ht="12.75" customHeight="1"/>
-    <row r="371" ht="12.75" customHeight="1"/>
-    <row r="372" ht="12.75" customHeight="1"/>
-    <row r="373" ht="12.75" customHeight="1"/>
-    <row r="374" ht="12.75" customHeight="1"/>
-    <row r="375" ht="12.75" customHeight="1"/>
-    <row r="376" ht="12.75" customHeight="1"/>
-    <row r="377" ht="12.75" customHeight="1"/>
-    <row r="378" ht="12.75" customHeight="1"/>
-    <row r="379" ht="12.75" customHeight="1"/>
-    <row r="380" ht="12.75" customHeight="1"/>
-    <row r="381" ht="12.75" customHeight="1"/>
-    <row r="382" ht="12.75" customHeight="1"/>
-    <row r="383" ht="12.75" customHeight="1"/>
-    <row r="384" ht="12.75" customHeight="1"/>
-    <row r="385" ht="12.75" customHeight="1"/>
-    <row r="386" ht="12.75" customHeight="1"/>
-    <row r="387" ht="12.75" customHeight="1"/>
-    <row r="388" ht="12.75" customHeight="1"/>
-    <row r="389" ht="12.75" customHeight="1"/>
-    <row r="390" ht="12.75" customHeight="1"/>
-    <row r="391" ht="12.75" customHeight="1"/>
-    <row r="392" ht="12.75" customHeight="1"/>
-    <row r="393" ht="12.75" customHeight="1"/>
-    <row r="394" ht="12.75" customHeight="1"/>
-    <row r="395" ht="12.75" customHeight="1"/>
-    <row r="396" ht="12.75" customHeight="1"/>
-    <row r="397" ht="12.75" customHeight="1"/>
-    <row r="398" ht="12.75" customHeight="1"/>
-    <row r="399" ht="12.75" customHeight="1"/>
-    <row r="400" ht="12.75" customHeight="1"/>
-    <row r="401" ht="12.75" customHeight="1"/>
-    <row r="402" ht="12.75" customHeight="1"/>
-    <row r="403" ht="12.75" customHeight="1"/>
-    <row r="404" ht="12.75" customHeight="1"/>
-    <row r="405" ht="12.75" customHeight="1"/>
-    <row r="406" ht="12.75" customHeight="1"/>
-    <row r="407" ht="12.75" customHeight="1"/>
-    <row r="408" ht="12.75" customHeight="1"/>
-    <row r="409" ht="12.75" customHeight="1"/>
-    <row r="410" ht="12.75" customHeight="1"/>
-    <row r="411" ht="12.75" customHeight="1"/>
-    <row r="412" ht="12.75" customHeight="1"/>
-    <row r="413" ht="12.75" customHeight="1"/>
-    <row r="414" ht="12.75" customHeight="1"/>
-    <row r="415" ht="12.75" customHeight="1"/>
-    <row r="416" ht="12.75" customHeight="1"/>
-    <row r="417" ht="12.75" customHeight="1"/>
-    <row r="418" ht="12.75" customHeight="1"/>
-    <row r="419" ht="12.75" customHeight="1"/>
-    <row r="420" ht="12.75" customHeight="1"/>
-    <row r="421" ht="12.75" customHeight="1"/>
-    <row r="422" ht="12.75" customHeight="1"/>
-    <row r="423" ht="12.75" customHeight="1"/>
-    <row r="424" ht="12.75" customHeight="1"/>
-    <row r="425" ht="12.75" customHeight="1"/>
-    <row r="426" ht="12.75" customHeight="1"/>
-    <row r="427" ht="12.75" customHeight="1"/>
-    <row r="428" ht="12.75" customHeight="1"/>
-    <row r="429" ht="12.75" customHeight="1"/>
-    <row r="430" ht="12.75" customHeight="1"/>
-    <row r="431" ht="12.75" customHeight="1"/>
-    <row r="432" ht="12.75" customHeight="1"/>
-    <row r="433" ht="12.75" customHeight="1"/>
-    <row r="434" ht="12.75" customHeight="1"/>
-    <row r="435" ht="12.75" customHeight="1"/>
-    <row r="436" ht="12.75" customHeight="1"/>
-    <row r="437" ht="12.75" customHeight="1"/>
-    <row r="438" ht="12.75" customHeight="1"/>
-    <row r="439" ht="12.75" customHeight="1"/>
-    <row r="440" ht="12.75" customHeight="1"/>
-    <row r="441" ht="12.75" customHeight="1"/>
-    <row r="442" ht="12.75" customHeight="1"/>
-    <row r="443" ht="12.75" customHeight="1"/>
-    <row r="444" ht="12.75" customHeight="1"/>
-    <row r="445" ht="12.75" customHeight="1"/>
-    <row r="446" ht="12.75" customHeight="1"/>
-    <row r="447" ht="12.75" customHeight="1"/>
-    <row r="448" ht="12.75" customHeight="1"/>
-    <row r="449" ht="12.75" customHeight="1"/>
-    <row r="450" ht="12.75" customHeight="1"/>
-    <row r="451" ht="12.75" customHeight="1"/>
-    <row r="452" ht="12.75" customHeight="1"/>
-    <row r="453" ht="12.75" customHeight="1"/>
-    <row r="454" ht="12.75" customHeight="1"/>
-    <row r="455" ht="12.75" customHeight="1"/>
-    <row r="456" ht="12.75" customHeight="1"/>
-    <row r="457" ht="12.75" customHeight="1"/>
-    <row r="458" ht="12.75" customHeight="1"/>
-    <row r="459" ht="12.75" customHeight="1"/>
-    <row r="460" ht="12.75" customHeight="1"/>
-    <row r="461" ht="12.75" customHeight="1"/>
-    <row r="462" ht="12.75" customHeight="1"/>
-    <row r="463" ht="12.75" customHeight="1"/>
-    <row r="464" ht="12.75" customHeight="1"/>
-    <row r="465" ht="12.75" customHeight="1"/>
-    <row r="466" ht="12.75" customHeight="1"/>
-    <row r="467" ht="12.75" customHeight="1"/>
-    <row r="468" ht="12.75" customHeight="1"/>
-    <row r="469" ht="12.75" customHeight="1"/>
-    <row r="470" ht="12.75" customHeight="1"/>
-    <row r="471" ht="12.75" customHeight="1"/>
-    <row r="472" ht="12.75" customHeight="1"/>
-    <row r="473" ht="12.75" customHeight="1"/>
-    <row r="474" ht="12.75" customHeight="1"/>
-    <row r="475" ht="12.75" customHeight="1"/>
-    <row r="476" ht="12.75" customHeight="1"/>
-    <row r="477" ht="12.75" customHeight="1"/>
-    <row r="478" ht="12.75" customHeight="1"/>
-    <row r="479" ht="12.75" customHeight="1"/>
-    <row r="480" ht="12.75" customHeight="1"/>
-    <row r="481" ht="12.75" customHeight="1"/>
-    <row r="482" ht="12.75" customHeight="1"/>
-    <row r="483" ht="12.75" customHeight="1"/>
-    <row r="484" ht="12.75" customHeight="1"/>
-    <row r="485" ht="12.75" customHeight="1"/>
-    <row r="486" ht="12.75" customHeight="1"/>
-    <row r="487" ht="12.75" customHeight="1"/>
-    <row r="488" ht="12.75" customHeight="1"/>
-    <row r="489" ht="12.75" customHeight="1"/>
-    <row r="490" ht="12.75" customHeight="1"/>
-    <row r="491" ht="12.75" customHeight="1"/>
-    <row r="492" ht="12.75" customHeight="1"/>
-    <row r="493" ht="12.75" customHeight="1"/>
-    <row r="494" ht="12.75" customHeight="1"/>
-    <row r="495" ht="12.75" customHeight="1"/>
-    <row r="496" ht="12.75" customHeight="1"/>
-    <row r="497" ht="12.75" customHeight="1"/>
-    <row r="498" ht="12.75" customHeight="1"/>
-    <row r="499" ht="12.75" customHeight="1"/>
-    <row r="500" ht="12.75" customHeight="1"/>
-    <row r="501" ht="12.75" customHeight="1"/>
-    <row r="502" ht="12.75" customHeight="1"/>
-    <row r="503" ht="12.75" customHeight="1"/>
-    <row r="504" ht="12.75" customHeight="1"/>
-    <row r="505" ht="12.75" customHeight="1"/>
-    <row r="506" ht="12.75" customHeight="1"/>
-    <row r="507" ht="12.75" customHeight="1"/>
-    <row r="508" ht="12.75" customHeight="1"/>
-    <row r="509" ht="12.75" customHeight="1"/>
-    <row r="510" ht="12.75" customHeight="1"/>
-    <row r="511" ht="12.75" customHeight="1"/>
-    <row r="512" ht="12.75" customHeight="1"/>
-    <row r="513" ht="12.75" customHeight="1"/>
-    <row r="514" ht="12.75" customHeight="1"/>
-    <row r="515" ht="12.75" customHeight="1"/>
-    <row r="516" ht="12.75" customHeight="1"/>
-    <row r="517" ht="12.75" customHeight="1"/>
-    <row r="518" ht="12.75" customHeight="1"/>
-    <row r="519" ht="12.75" customHeight="1"/>
-    <row r="520" ht="12.75" customHeight="1"/>
-    <row r="521" ht="12.75" customHeight="1"/>
-    <row r="522" ht="12.75" customHeight="1"/>
-    <row r="523" ht="12.75" customHeight="1"/>
-    <row r="524" ht="12.75" customHeight="1"/>
-    <row r="525" ht="12.75" customHeight="1"/>
-    <row r="526" ht="12.75" customHeight="1"/>
-    <row r="527" ht="12.75" customHeight="1"/>
-    <row r="528" ht="12.75" customHeight="1"/>
-    <row r="529" ht="12.75" customHeight="1"/>
-    <row r="530" ht="12.75" customHeight="1"/>
-    <row r="531" ht="12.75" customHeight="1"/>
-    <row r="532" ht="12.75" customHeight="1"/>
-    <row r="533" ht="12.75" customHeight="1"/>
-    <row r="534" ht="12.75" customHeight="1"/>
-    <row r="535" ht="12.75" customHeight="1"/>
-    <row r="536" ht="12.75" customHeight="1"/>
-    <row r="537" ht="12.75" customHeight="1"/>
-    <row r="538" ht="12.75" customHeight="1"/>
-    <row r="539" ht="12.75" customHeight="1"/>
-    <row r="540" ht="12.75" customHeight="1"/>
-    <row r="541" ht="12.75" customHeight="1"/>
-    <row r="542" ht="12.75" customHeight="1"/>
-    <row r="543" ht="12.75" customHeight="1"/>
-    <row r="544" ht="12.75" customHeight="1"/>
-    <row r="545" ht="12.75" customHeight="1"/>
-    <row r="546" ht="12.75" customHeight="1"/>
-    <row r="547" ht="12.75" customHeight="1"/>
-    <row r="548" ht="12.75" customHeight="1"/>
-    <row r="549" ht="12.75" customHeight="1"/>
-    <row r="550" ht="12.75" customHeight="1"/>
-    <row r="551" ht="12.75" customHeight="1"/>
-    <row r="552" ht="12.75" customHeight="1"/>
-    <row r="553" ht="12.75" customHeight="1"/>
-    <row r="554" ht="12.75" customHeight="1"/>
-    <row r="555" ht="12.75" customHeight="1"/>
-    <row r="556" ht="12.75" customHeight="1"/>
-    <row r="557" ht="12.75" customHeight="1"/>
-    <row r="558" ht="12.75" customHeight="1"/>
-    <row r="559" ht="12.75" customHeight="1"/>
-    <row r="560" ht="12.75" customHeight="1"/>
-    <row r="561" ht="12.75" customHeight="1"/>
-    <row r="562" ht="12.75" customHeight="1"/>
-    <row r="563" ht="12.75" customHeight="1"/>
-    <row r="564" ht="12.75" customHeight="1"/>
-    <row r="565" ht="12.75" customHeight="1"/>
-    <row r="566" ht="12.75" customHeight="1"/>
-    <row r="567" ht="12.75" customHeight="1"/>
-    <row r="568" ht="12.75" customHeight="1"/>
-    <row r="569" ht="12.75" customHeight="1"/>
-    <row r="570" ht="12.75" customHeight="1"/>
-    <row r="571" ht="12.75" customHeight="1"/>
-    <row r="572" ht="12.75" customHeight="1"/>
-    <row r="573" ht="12.75" customHeight="1"/>
-    <row r="574" ht="12.75" customHeight="1"/>
-    <row r="575" ht="12.75" customHeight="1"/>
-    <row r="576" ht="12.75" customHeight="1"/>
-    <row r="577" ht="12.75" customHeight="1"/>
-    <row r="578" ht="12.75" customHeight="1"/>
-    <row r="579" ht="12.75" customHeight="1"/>
-    <row r="580" ht="12.75" customHeight="1"/>
-    <row r="581" ht="12.75" customHeight="1"/>
-    <row r="582" ht="12.75" customHeight="1"/>
-    <row r="583" ht="12.75" customHeight="1"/>
-    <row r="584" ht="12.75" customHeight="1"/>
-    <row r="585" ht="12.75" customHeight="1"/>
-    <row r="586" ht="12.75" customHeight="1"/>
-    <row r="587" ht="12.75" customHeight="1"/>
-    <row r="588" ht="12.75" customHeight="1"/>
-    <row r="589" ht="12.75" customHeight="1"/>
-    <row r="590" ht="12.75" customHeight="1"/>
-    <row r="591" ht="12.75" customHeight="1"/>
-    <row r="592" ht="12.75" customHeight="1"/>
-    <row r="593" ht="12.75" customHeight="1"/>
-    <row r="594" ht="12.75" customHeight="1"/>
-    <row r="595" ht="12.75" customHeight="1"/>
-    <row r="596" ht="12.75" customHeight="1"/>
-    <row r="597" ht="12.75" customHeight="1"/>
-    <row r="598" ht="12.75" customHeight="1"/>
-    <row r="599" ht="12.75" customHeight="1"/>
-    <row r="600" ht="12.75" customHeight="1"/>
-    <row r="601" ht="12.75" customHeight="1"/>
-    <row r="602" ht="12.75" customHeight="1"/>
-    <row r="603" ht="12.75" customHeight="1"/>
-    <row r="604" ht="12.75" customHeight="1"/>
-    <row r="605" ht="12.75" customHeight="1"/>
-    <row r="606" ht="12.75" customHeight="1"/>
-    <row r="607" ht="12.75" customHeight="1"/>
-    <row r="608" ht="12.75" customHeight="1"/>
-    <row r="609" ht="12.75" customHeight="1"/>
-    <row r="610" ht="12.75" customHeight="1"/>
-    <row r="611" ht="12.75" customHeight="1"/>
-    <row r="612" ht="12.75" customHeight="1"/>
-    <row r="613" ht="12.75" customHeight="1"/>
-    <row r="614" ht="12.75" customHeight="1"/>
-    <row r="615" ht="12.75" customHeight="1"/>
-    <row r="616" ht="12.75" customHeight="1"/>
-    <row r="617" ht="12.75" customHeight="1"/>
-    <row r="618" ht="12.75" customHeight="1"/>
-    <row r="619" ht="12.75" customHeight="1"/>
-    <row r="620" ht="12.75" customHeight="1"/>
-    <row r="621" ht="12.75" customHeight="1"/>
-    <row r="622" ht="12.75" customHeight="1"/>
-    <row r="623" ht="12.75" customHeight="1"/>
-    <row r="624" ht="12.75" customHeight="1"/>
-    <row r="625" ht="12.75" customHeight="1"/>
-    <row r="626" ht="12.75" customHeight="1"/>
-    <row r="627" ht="12.75" customHeight="1"/>
-    <row r="628" ht="12.75" customHeight="1"/>
-    <row r="629" ht="12.75" customHeight="1"/>
-    <row r="630" ht="12.75" customHeight="1"/>
-    <row r="631" ht="12.75" customHeight="1"/>
-    <row r="632" ht="12.75" customHeight="1"/>
-    <row r="633" ht="12.75" customHeight="1"/>
-    <row r="634" ht="12.75" customHeight="1"/>
-    <row r="635" ht="12.75" customHeight="1"/>
-    <row r="636" ht="12.75" customHeight="1"/>
-    <row r="637" ht="12.75" customHeight="1"/>
-    <row r="638" ht="12.75" customHeight="1"/>
-    <row r="639" ht="12.75" customHeight="1"/>
-    <row r="640" ht="12.75" customHeight="1"/>
-    <row r="641" ht="12.75" customHeight="1"/>
-    <row r="642" ht="12.75" customHeight="1"/>
-    <row r="643" ht="12.75" customHeight="1"/>
-    <row r="644" ht="12.75" customHeight="1"/>
-    <row r="645" ht="12.75" customHeight="1"/>
-    <row r="646" ht="12.75" customHeight="1"/>
-    <row r="647" ht="12.75" customHeight="1"/>
-    <row r="648" ht="12.75" customHeight="1"/>
-    <row r="649" ht="12.75" customHeight="1"/>
-    <row r="650" ht="12.75" customHeight="1"/>
-    <row r="651" ht="12.75" customHeight="1"/>
-    <row r="652" ht="12.75" customHeight="1"/>
-    <row r="653" ht="12.75" customHeight="1"/>
-    <row r="654" ht="12.75" customHeight="1"/>
-    <row r="655" ht="12.75" customHeight="1"/>
-    <row r="656" ht="12.75" customHeight="1"/>
-    <row r="657" ht="12.75" customHeight="1"/>
-    <row r="658" ht="12.75" customHeight="1"/>
-    <row r="659" ht="12.75" customHeight="1"/>
-    <row r="660" ht="12.75" customHeight="1"/>
-    <row r="661" ht="12.75" customHeight="1"/>
-    <row r="662" ht="12.75" customHeight="1"/>
-    <row r="663" ht="12.75" customHeight="1"/>
-    <row r="664" ht="12.75" customHeight="1"/>
-    <row r="665" ht="12.75" customHeight="1"/>
-    <row r="666" ht="12.75" customHeight="1"/>
-    <row r="667" ht="12.75" customHeight="1"/>
-    <row r="668" ht="12.75" customHeight="1"/>
-    <row r="669" ht="12.75" customHeight="1"/>
-    <row r="670" ht="12.75" customHeight="1"/>
-    <row r="671" ht="12.75" customHeight="1"/>
-    <row r="672" ht="12.75" customHeight="1"/>
-    <row r="673" ht="12.75" customHeight="1"/>
-    <row r="674" ht="12.75" customHeight="1"/>
-    <row r="675" ht="12.75" customHeight="1"/>
-    <row r="676" ht="12.75" customHeight="1"/>
-    <row r="677" ht="12.75" customHeight="1"/>
-    <row r="678" ht="12.75" customHeight="1"/>
-    <row r="679" ht="12.75" customHeight="1"/>
-    <row r="680" ht="12.75" customHeight="1"/>
-    <row r="681" ht="12.75" customHeight="1"/>
-    <row r="682" ht="12.75" customHeight="1"/>
-    <row r="683" ht="12.75" customHeight="1"/>
-    <row r="684" ht="12.75" customHeight="1"/>
-    <row r="685" ht="12.75" customHeight="1"/>
-    <row r="686" ht="12.75" customHeight="1"/>
-    <row r="687" ht="12.75" customHeight="1"/>
-    <row r="688" ht="12.75" customHeight="1"/>
-    <row r="689" ht="12.75" customHeight="1"/>
-    <row r="690" ht="12.75" customHeight="1"/>
-    <row r="691" ht="12.75" customHeight="1"/>
-    <row r="692" ht="12.75" customHeight="1"/>
-    <row r="693" ht="12.75" customHeight="1"/>
-    <row r="694" ht="12.75" customHeight="1"/>
-    <row r="695" ht="12.75" customHeight="1"/>
-    <row r="696" ht="12.75" customHeight="1"/>
-    <row r="697" ht="12.75" customHeight="1"/>
-    <row r="698" ht="12.75" customHeight="1"/>
-    <row r="699" ht="12.75" customHeight="1"/>
-    <row r="700" ht="12.75" customHeight="1"/>
-    <row r="701" ht="12.75" customHeight="1"/>
-    <row r="702" ht="12.75" customHeight="1"/>
-    <row r="703" ht="12.75" customHeight="1"/>
-    <row r="704" ht="12.75" customHeight="1"/>
-    <row r="705" ht="12.75" customHeight="1"/>
-    <row r="706" ht="12.75" customHeight="1"/>
-    <row r="707" ht="12.75" customHeight="1"/>
-    <row r="708" ht="12.75" customHeight="1"/>
-    <row r="709" ht="12.75" customHeight="1"/>
-    <row r="710" ht="12.75" customHeight="1"/>
-    <row r="711" ht="12.75" customHeight="1"/>
-    <row r="712" ht="12.75" customHeight="1"/>
-    <row r="713" ht="12.75" customHeight="1"/>
-    <row r="714" ht="12.75" customHeight="1"/>
-    <row r="715" ht="12.75" customHeight="1"/>
-    <row r="716" ht="12.75" customHeight="1"/>
-    <row r="717" ht="12.75" customHeight="1"/>
-    <row r="718" ht="12.75" customHeight="1"/>
-    <row r="719" ht="12.75" customHeight="1"/>
-    <row r="720" ht="12.75" customHeight="1"/>
-    <row r="721" ht="12.75" customHeight="1"/>
-    <row r="722" ht="12.75" customHeight="1"/>
-    <row r="723" ht="12.75" customHeight="1"/>
-    <row r="724" ht="12.75" customHeight="1"/>
-    <row r="725" ht="12.75" customHeight="1"/>
-    <row r="726" ht="12.75" customHeight="1"/>
-    <row r="727" ht="12.75" customHeight="1"/>
-    <row r="728" ht="12.75" customHeight="1"/>
-    <row r="729" ht="12.75" customHeight="1"/>
-    <row r="730" ht="12.75" customHeight="1"/>
-    <row r="731" ht="12.75" customHeight="1"/>
-    <row r="732" ht="12.75" customHeight="1"/>
-    <row r="733" ht="12.75" customHeight="1"/>
-    <row r="734" ht="12.75" customHeight="1"/>
-    <row r="735" ht="12.75" customHeight="1"/>
-    <row r="736" ht="12.75" customHeight="1"/>
-    <row r="737" ht="12.75" customHeight="1"/>
-    <row r="738" ht="12.75" customHeight="1"/>
-    <row r="739" ht="12.75" customHeight="1"/>
-    <row r="740" ht="12.75" customHeight="1"/>
-    <row r="741" ht="12.75" customHeight="1"/>
-    <row r="742" ht="12.75" customHeight="1"/>
-    <row r="743" ht="12.75" customHeight="1"/>
-    <row r="744" ht="12.75" customHeight="1"/>
-    <row r="745" ht="12.75" customHeight="1"/>
-    <row r="746" ht="12.75" customHeight="1"/>
-    <row r="747" ht="12.75" customHeight="1"/>
-    <row r="748" ht="12.75" customHeight="1"/>
-    <row r="749" ht="12.75" customHeight="1"/>
-    <row r="750" ht="12.75" customHeight="1"/>
-    <row r="751" ht="12.75" customHeight="1"/>
-    <row r="752" ht="12.75" customHeight="1"/>
-    <row r="753" ht="12.75" customHeight="1"/>
-    <row r="754" ht="12.75" customHeight="1"/>
-    <row r="755" ht="12.75" customHeight="1"/>
-    <row r="756" ht="12.75" customHeight="1"/>
-    <row r="757" ht="12.75" customHeight="1"/>
-    <row r="758" ht="12.75" customHeight="1"/>
-    <row r="759" ht="12.75" customHeight="1"/>
-    <row r="760" ht="12.75" customHeight="1"/>
-    <row r="761" ht="12.75" customHeight="1"/>
-    <row r="762" ht="12.75" customHeight="1"/>
-    <row r="763" ht="12.75" customHeight="1"/>
-    <row r="764" ht="12.75" customHeight="1"/>
-    <row r="765" ht="12.75" customHeight="1"/>
-    <row r="766" ht="12.75" customHeight="1"/>
-    <row r="767" ht="12.75" customHeight="1"/>
-    <row r="768" ht="12.75" customHeight="1"/>
-    <row r="769" ht="12.75" customHeight="1"/>
-    <row r="770" ht="12.75" customHeight="1"/>
-    <row r="771" ht="12.75" customHeight="1"/>
-    <row r="772" ht="12.75" customHeight="1"/>
-    <row r="773" ht="12.75" customHeight="1"/>
-    <row r="774" ht="12.75" customHeight="1"/>
-    <row r="775" ht="12.75" customHeight="1"/>
-    <row r="776" ht="12.75" customHeight="1"/>
-    <row r="777" ht="12.75" customHeight="1"/>
-    <row r="778" ht="12.75" customHeight="1"/>
-    <row r="779" ht="12.75" customHeight="1"/>
-    <row r="780" ht="12.75" customHeight="1"/>
-    <row r="781" ht="12.75" customHeight="1"/>
-    <row r="782" ht="12.75" customHeight="1"/>
-    <row r="783" ht="12.75" customHeight="1"/>
-    <row r="784" ht="12.75" customHeight="1"/>
-    <row r="785" ht="12.75" customHeight="1"/>
-    <row r="786" ht="12.75" customHeight="1"/>
-    <row r="787" ht="12.75" customHeight="1"/>
-    <row r="788" ht="12.75" customHeight="1"/>
-    <row r="789" ht="12.75" customHeight="1"/>
-    <row r="790" ht="12.75" customHeight="1"/>
-    <row r="791" ht="12.75" customHeight="1"/>
-    <row r="792" ht="12.75" customHeight="1"/>
-    <row r="793" ht="12.75" customHeight="1"/>
-    <row r="794" ht="12.75" customHeight="1"/>
-    <row r="795" ht="12.75" customHeight="1"/>
-    <row r="796" ht="12.75" customHeight="1"/>
-    <row r="797" ht="12.75" customHeight="1"/>
-    <row r="798" ht="12.75" customHeight="1"/>
-    <row r="799" ht="12.75" customHeight="1"/>
-    <row r="800" ht="12.75" customHeight="1"/>
-    <row r="801" ht="12.75" customHeight="1"/>
-    <row r="802" ht="12.75" customHeight="1"/>
-    <row r="803" ht="12.75" customHeight="1"/>
-    <row r="804" ht="12.75" customHeight="1"/>
-    <row r="805" ht="12.75" customHeight="1"/>
-    <row r="806" ht="12.75" customHeight="1"/>
-    <row r="807" ht="12.75" customHeight="1"/>
-    <row r="808" ht="12.75" customHeight="1"/>
-    <row r="809" ht="12.75" customHeight="1"/>
-    <row r="810" ht="12.75" customHeight="1"/>
-    <row r="811" ht="12.75" customHeight="1"/>
-    <row r="812" ht="12.75" customHeight="1"/>
-    <row r="813" ht="12.75" customHeight="1"/>
-    <row r="814" ht="12.75" customHeight="1"/>
-    <row r="815" ht="12.75" customHeight="1"/>
-    <row r="816" ht="12.75" customHeight="1"/>
-    <row r="817" ht="12.75" customHeight="1"/>
-    <row r="818" ht="12.75" customHeight="1"/>
-    <row r="819" ht="12.75" customHeight="1"/>
-    <row r="820" ht="12.75" customHeight="1"/>
-    <row r="821" ht="12.75" customHeight="1"/>
-    <row r="822" ht="12.75" customHeight="1"/>
-    <row r="823" ht="12.75" customHeight="1"/>
-    <row r="824" ht="12.75" customHeight="1"/>
-    <row r="825" ht="12.75" customHeight="1"/>
-    <row r="826" ht="12.75" customHeight="1"/>
-    <row r="827" ht="12.75" customHeight="1"/>
-    <row r="828" ht="12.75" customHeight="1"/>
-    <row r="829" ht="12.75" customHeight="1"/>
-    <row r="830" ht="12.75" customHeight="1"/>
-    <row r="831" ht="12.75" customHeight="1"/>
-    <row r="832" ht="12.75" customHeight="1"/>
-    <row r="833" ht="12.75" customHeight="1"/>
-    <row r="834" ht="12.75" customHeight="1"/>
-    <row r="835" ht="12.75" customHeight="1"/>
-    <row r="836" ht="12.75" customHeight="1"/>
-    <row r="837" ht="12.75" customHeight="1"/>
-    <row r="838" ht="12.75" customHeight="1"/>
-    <row r="839" ht="12.75" customHeight="1"/>
-    <row r="840" ht="12.75" customHeight="1"/>
-    <row r="841" ht="12.75" customHeight="1"/>
-    <row r="842" ht="12.75" customHeight="1"/>
-    <row r="843" ht="12.75" customHeight="1"/>
-    <row r="844" ht="12.75" customHeight="1"/>
-    <row r="845" ht="12.75" customHeight="1"/>
-    <row r="846" ht="12.75" customHeight="1"/>
-    <row r="847" ht="12.75" customHeight="1"/>
-    <row r="848" ht="12.75" customHeight="1"/>
-    <row r="849" ht="12.75" customHeight="1"/>
-    <row r="850" ht="12.75" customHeight="1"/>
-    <row r="851" ht="12.75" customHeight="1"/>
-    <row r="852" ht="12.75" customHeight="1"/>
-    <row r="853" ht="12.75" customHeight="1"/>
-    <row r="854" ht="12.75" customHeight="1"/>
-    <row r="855" ht="12.75" customHeight="1"/>
-    <row r="856" ht="12.75" customHeight="1"/>
-    <row r="857" ht="12.75" customHeight="1"/>
-    <row r="858" ht="12.75" customHeight="1"/>
-    <row r="859" ht="12.75" customHeight="1"/>
-    <row r="860" ht="12.75" customHeight="1"/>
-    <row r="861" ht="12.75" customHeight="1"/>
-    <row r="862" ht="12.75" customHeight="1"/>
-    <row r="863" ht="12.75" customHeight="1"/>
-    <row r="864" ht="12.75" customHeight="1"/>
-    <row r="865" ht="12.75" customHeight="1"/>
-    <row r="866" ht="12.75" customHeight="1"/>
-    <row r="867" ht="12.75" customHeight="1"/>
-    <row r="868" ht="12.75" customHeight="1"/>
-    <row r="869" ht="12.75" customHeight="1"/>
-    <row r="870" ht="12.75" customHeight="1"/>
-    <row r="871" ht="12.75" customHeight="1"/>
-    <row r="872" ht="12.75" customHeight="1"/>
-    <row r="873" ht="12.75" customHeight="1"/>
-    <row r="874" ht="12.75" customHeight="1"/>
-    <row r="875" ht="12.75" customHeight="1"/>
-    <row r="876" ht="12.75" customHeight="1"/>
-    <row r="877" ht="12.75" customHeight="1"/>
-    <row r="878" ht="12.75" customHeight="1"/>
-    <row r="879" ht="12.75" customHeight="1"/>
-    <row r="880" ht="12.75" customHeight="1"/>
-    <row r="881" ht="12.75" customHeight="1"/>
-    <row r="882" ht="12.75" customHeight="1"/>
-    <row r="883" ht="12.75" customHeight="1"/>
-    <row r="884" ht="12.75" customHeight="1"/>
-    <row r="885" ht="12.75" customHeight="1"/>
-    <row r="886" ht="12.75" customHeight="1"/>
-    <row r="887" ht="12.75" customHeight="1"/>
-    <row r="888" ht="12.75" customHeight="1"/>
-    <row r="889" ht="12.75" customHeight="1"/>
-    <row r="890" ht="12.75" customHeight="1"/>
-    <row r="891" ht="12.75" customHeight="1"/>
-    <row r="892" ht="12.75" customHeight="1"/>
-    <row r="893" ht="12.75" customHeight="1"/>
-    <row r="894" ht="12.75" customHeight="1"/>
-    <row r="895" ht="12.75" customHeight="1"/>
-    <row r="896" ht="12.75" customHeight="1"/>
-    <row r="897" ht="12.75" customHeight="1"/>
-    <row r="898" ht="12.75" customHeight="1"/>
-    <row r="899" ht="12.75" customHeight="1"/>
-    <row r="900" ht="12.75" customHeight="1"/>
-    <row r="901" ht="12.75" customHeight="1"/>
-    <row r="902" ht="12.75" customHeight="1"/>
-    <row r="903" ht="12.75" customHeight="1"/>
-    <row r="904" ht="12.75" customHeight="1"/>
-    <row r="905" ht="12.75" customHeight="1"/>
-    <row r="906" ht="12.75" customHeight="1"/>
-    <row r="907" ht="12.75" customHeight="1"/>
-    <row r="908" ht="12.75" customHeight="1"/>
-    <row r="909" ht="12.75" customHeight="1"/>
-    <row r="910" ht="12.75" customHeight="1"/>
-    <row r="911" ht="12.75" customHeight="1"/>
-    <row r="912" ht="12.75" customHeight="1"/>
-    <row r="913" ht="12.75" customHeight="1"/>
-    <row r="914" ht="12.75" customHeight="1"/>
-    <row r="915" ht="12.75" customHeight="1"/>
-    <row r="916" ht="12.75" customHeight="1"/>
-    <row r="917" ht="12.75" customHeight="1"/>
-    <row r="918" ht="12.75" customHeight="1"/>
-    <row r="919" ht="12.75" customHeight="1"/>
-    <row r="920" ht="12.75" customHeight="1"/>
-    <row r="921" ht="12.75" customHeight="1"/>
-    <row r="922" ht="12.75" customHeight="1"/>
-    <row r="923" ht="12.75" customHeight="1"/>
-    <row r="924" ht="12.75" customHeight="1"/>
-    <row r="925" ht="12.75" customHeight="1"/>
-    <row r="926" ht="12.75" customHeight="1"/>
-    <row r="927" ht="12.75" customHeight="1"/>
-    <row r="928" ht="12.75" customHeight="1"/>
-    <row r="929" ht="12.75" customHeight="1"/>
-    <row r="930" ht="12.75" customHeight="1"/>
-    <row r="931" ht="12.75" customHeight="1"/>
-    <row r="932" ht="12.75" customHeight="1"/>
-    <row r="933" ht="12.75" customHeight="1"/>
-    <row r="934" ht="12.75" customHeight="1"/>
-    <row r="935" ht="12.75" customHeight="1"/>
-    <row r="936" ht="12.75" customHeight="1"/>
-    <row r="937" ht="12.75" customHeight="1"/>
-    <row r="938" ht="12.75" customHeight="1"/>
-    <row r="939" ht="12.75" customHeight="1"/>
-    <row r="940" ht="12.75" customHeight="1"/>
-    <row r="941" ht="12.75" customHeight="1"/>
-    <row r="942" ht="12.75" customHeight="1"/>
-    <row r="943" ht="12.75" customHeight="1"/>
-    <row r="944" ht="12.75" customHeight="1"/>
-    <row r="945" ht="12.75" customHeight="1"/>
-    <row r="946" ht="12.75" customHeight="1"/>
-    <row r="947" ht="12.75" customHeight="1"/>
-    <row r="948" ht="12.75" customHeight="1"/>
-    <row r="949" ht="12.75" customHeight="1"/>
-    <row r="950" ht="12.75" customHeight="1"/>
-    <row r="951" ht="12.75" customHeight="1"/>
-    <row r="952" ht="12.75" customHeight="1"/>
-    <row r="953" ht="12.75" customHeight="1"/>
-    <row r="954" ht="12.75" customHeight="1"/>
-    <row r="955" ht="12.75" customHeight="1"/>
-    <row r="956" ht="12.75" customHeight="1"/>
-    <row r="957" ht="12.75" customHeight="1"/>
-    <row r="958" ht="12.75" customHeight="1"/>
-    <row r="959" ht="12.75" customHeight="1"/>
-    <row r="960" ht="12.75" customHeight="1"/>
-    <row r="961" ht="12.75" customHeight="1"/>
-    <row r="962" ht="12.75" customHeight="1"/>
-    <row r="963" ht="12.75" customHeight="1"/>
-    <row r="964" ht="12.75" customHeight="1"/>
-    <row r="965" ht="12.75" customHeight="1"/>
-    <row r="966" ht="12.75" customHeight="1"/>
-    <row r="967" ht="12.75" customHeight="1"/>
-    <row r="968" ht="12.75" customHeight="1"/>
-    <row r="969" ht="12.75" customHeight="1"/>
-    <row r="970" ht="12.75" customHeight="1"/>
-    <row r="971" ht="12.75" customHeight="1"/>
-    <row r="972" ht="12.75" customHeight="1"/>
-    <row r="973" ht="12.75" customHeight="1"/>
-    <row r="974" ht="12.75" customHeight="1"/>
-    <row r="975" ht="12.75" customHeight="1"/>
-    <row r="976" ht="12.75" customHeight="1"/>
-    <row r="977" ht="12.75" customHeight="1"/>
-    <row r="978" ht="12.75" customHeight="1"/>
-    <row r="979" ht="12.75" customHeight="1"/>
-    <row r="980" ht="12.75" customHeight="1"/>
-    <row r="981" ht="12.75" customHeight="1"/>
-    <row r="982" ht="12.75" customHeight="1"/>
-    <row r="983" ht="12.75" customHeight="1"/>
-    <row r="984" ht="12.75" customHeight="1"/>
-    <row r="985" ht="12.75" customHeight="1"/>
-    <row r="986" ht="12.75" customHeight="1"/>
-    <row r="987" ht="12.75" customHeight="1"/>
-    <row r="988" ht="12.75" customHeight="1"/>
-    <row r="989" ht="12.75" customHeight="1"/>
-    <row r="990" ht="12.75" customHeight="1"/>
-    <row r="991" ht="12.75" customHeight="1"/>
-    <row r="992" ht="12.75" customHeight="1"/>
-    <row r="993" ht="12.75" customHeight="1"/>
-    <row r="994" ht="12.75" customHeight="1"/>
-    <row r="995" ht="12.75" customHeight="1"/>
-    <row r="996" ht="12.75" customHeight="1"/>
-    <row r="997" ht="12.75" customHeight="1"/>
-    <row r="998" ht="12.75" customHeight="1"/>
-    <row r="999" ht="12.75" customHeight="1"/>
-    <row r="1000" ht="12.75" customHeight="1"/>
+    <row r="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
